--- a/controller/src/main/resources/jxls_templates/lunarbasic.xlsx
+++ b/controller/src/main/resources/jxls_templates/lunarbasic.xlsx
@@ -75,7 +75,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>工号</t>
+    <t>卡号</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -242,6 +242,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,14 +258,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,8 +613,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -628,8 +628,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -643,8 +643,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -658,8 +658,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -673,8 +673,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -688,8 +688,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -703,8 +703,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -718,8 +718,8 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -733,8 +733,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -748,8 +748,8 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -763,8 +763,8 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -778,8 +778,8 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -793,8 +793,8 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -808,8 +808,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -823,8 +823,8 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -838,8 +838,8 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -853,8 +853,8 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -868,8 +868,8 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -883,8 +883,8 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -898,8 +898,8 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -913,8 +913,8 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -928,8 +928,8 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -943,8 +943,8 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -958,8 +958,8 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -973,8 +973,8 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -988,8 +988,8 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1003,8 +1003,8 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1018,8 +1018,8 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1033,8 +1033,8 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1048,8 +1048,8 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1063,8 +1063,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1078,8 +1078,8 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1093,8 +1093,8 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1108,8 +1108,8 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1123,8 +1123,8 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1138,8 +1138,8 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1153,8 +1153,8 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1168,8 +1168,8 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1183,8 +1183,8 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1198,8 +1198,8 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1213,8 +1213,8 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1228,8 +1228,8 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1243,8 +1243,8 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1258,8 +1258,8 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1273,8 +1273,8 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1288,8 +1288,8 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1303,8 +1303,8 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1318,8 +1318,8 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1333,8 +1333,8 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1348,8 +1348,8 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1363,8 +1363,8 @@
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -1378,8 +1378,8 @@
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -1393,8 +1393,8 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -1408,8 +1408,8 @@
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -1423,8 +1423,8 @@
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -1438,8 +1438,8 @@
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -1453,8 +1453,8 @@
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -1468,8 +1468,8 @@
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -1483,8 +1483,8 @@
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -1498,8 +1498,8 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -1513,8 +1513,8 @@
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -1528,8 +1528,8 @@
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -1543,8 +1543,8 @@
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -1558,8 +1558,8 @@
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -1573,8 +1573,8 @@
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -1588,8 +1588,8 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -1603,8 +1603,8 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -1618,8 +1618,8 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -1633,8 +1633,8 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -1648,8 +1648,8 @@
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -1663,8 +1663,8 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -1678,8 +1678,8 @@
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -1693,8 +1693,8 @@
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -1708,8 +1708,8 @@
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -1723,8 +1723,8 @@
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -1738,8 +1738,8 @@
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -1753,8 +1753,8 @@
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -1768,8 +1768,8 @@
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -1783,8 +1783,8 @@
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -1798,8 +1798,8 @@
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -1813,8 +1813,8 @@
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -1828,8 +1828,8 @@
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -1843,8 +1843,8 @@
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -1858,8 +1858,8 @@
       <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -1873,8 +1873,8 @@
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -1888,8 +1888,8 @@
       <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -1903,8 +1903,8 @@
       <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -1918,8 +1918,8 @@
       <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -1933,8 +1933,8 @@
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -1948,8 +1948,8 @@
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -1963,8 +1963,8 @@
       <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -1978,8 +1978,8 @@
       <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -1993,8 +1993,8 @@
       <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -2008,8 +2008,8 @@
       <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -2023,8 +2023,8 @@
       <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2038,8 +2038,8 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -2053,8 +2053,8 @@
       <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -2068,8 +2068,8 @@
       <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -2083,8 +2083,8 @@
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -2098,8 +2098,8 @@
       <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -2113,8 +2113,8 @@
       <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -2128,8 +2128,8 @@
       <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2143,8 +2143,8 @@
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -2158,8 +2158,8 @@
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="10"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -2173,8 +2173,8 @@
       <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -2188,8 +2188,8 @@
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -2203,8 +2203,8 @@
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -2218,8 +2218,8 @@
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -2233,8 +2233,8 @@
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -2248,8 +2248,8 @@
       <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -2263,8 +2263,8 @@
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -2278,8 +2278,8 @@
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -2293,8 +2293,8 @@
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -2308,8 +2308,8 @@
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -2323,8 +2323,8 @@
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -2338,8 +2338,8 @@
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -2353,8 +2353,8 @@
       <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -2368,8 +2368,8 @@
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="10"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -2383,8 +2383,8 @@
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="10"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -2398,8 +2398,8 @@
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -2413,8 +2413,8 @@
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -2428,8 +2428,8 @@
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -2443,8 +2443,8 @@
       <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -2458,8 +2458,8 @@
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="10"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -2473,8 +2473,8 @@
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -2488,8 +2488,8 @@
       <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="10"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -2503,8 +2503,8 @@
       <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="10"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -2518,8 +2518,8 @@
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="10"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -2533,8 +2533,8 @@
       <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="10"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -2548,8 +2548,8 @@
       <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -2563,8 +2563,8 @@
       <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -2578,8 +2578,8 @@
       <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -2593,8 +2593,8 @@
       <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="10"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -2608,8 +2608,8 @@
       <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -2623,8 +2623,8 @@
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -2638,8 +2638,8 @@
       <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="10"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -2653,8 +2653,8 @@
       <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="10"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -2668,8 +2668,8 @@
       <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="10"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -2683,8 +2683,8 @@
       <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -2698,8 +2698,8 @@
       <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -2713,8 +2713,8 @@
       <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -2728,8 +2728,8 @@
       <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="10"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -2743,8 +2743,8 @@
       <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="10"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -2758,8 +2758,8 @@
       <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="10"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -2773,8 +2773,8 @@
       <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -2788,8 +2788,8 @@
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -2803,8 +2803,8 @@
       <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="10"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -2818,8 +2818,8 @@
       <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="10"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -2833,8 +2833,8 @@
       <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="10"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -2848,8 +2848,8 @@
       <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="10"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -2863,8 +2863,8 @@
       <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="10"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -2878,8 +2878,8 @@
       <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="10"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -2893,8 +2893,8 @@
       <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="10"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -2908,8 +2908,8 @@
       <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="10"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -2923,8 +2923,8 @@
       <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="10"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
@@ -2938,8 +2938,8 @@
       <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="10"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -2953,8 +2953,8 @@
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="10"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -2968,8 +2968,8 @@
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="10"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
@@ -2983,8 +2983,8 @@
       <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="10"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
@@ -2998,8 +2998,8 @@
       <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="10"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -3013,8 +3013,8 @@
       <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="10"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -3028,8 +3028,8 @@
       <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="10"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -3043,8 +3043,8 @@
       <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="10"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3058,8 +3058,8 @@
       <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="10"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
@@ -3073,8 +3073,8 @@
       <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="10"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -3088,8 +3088,8 @@
       <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="10"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -3103,8 +3103,8 @@
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="10"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -3118,8 +3118,8 @@
       <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="10"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
@@ -3133,8 +3133,8 @@
       <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
@@ -3148,8 +3148,8 @@
       <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="10"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
@@ -3163,8 +3163,8 @@
       <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="10"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -3178,8 +3178,8 @@
       <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="10"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -3193,8 +3193,8 @@
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="10"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -3208,8 +3208,8 @@
       <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -3223,8 +3223,8 @@
       <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="10"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
@@ -3238,8 +3238,8 @@
       <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="10"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
@@ -3253,8 +3253,8 @@
       <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -3268,8 +3268,8 @@
       <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="10"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -3283,8 +3283,8 @@
       <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
@@ -3298,8 +3298,8 @@
       <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="10"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -3313,8 +3313,8 @@
       <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="10"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -3328,8 +3328,8 @@
       <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="10"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -3343,8 +3343,8 @@
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="10"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -3358,8 +3358,8 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="10"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -3373,8 +3373,8 @@
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="10"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -3388,8 +3388,8 @@
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="10"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -3403,8 +3403,8 @@
       <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="10"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -3418,8 +3418,8 @@
       <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -3433,8 +3433,8 @@
       <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
@@ -3448,8 +3448,8 @@
       <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="10"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -3463,8 +3463,8 @@
       <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="10"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -3478,8 +3478,8 @@
       <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="13"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="10"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -3493,8 +3493,8 @@
       <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194" s="12"/>
-      <c r="C194" s="13"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="10"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -3508,8 +3508,8 @@
       <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="13"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
@@ -3523,8 +3523,8 @@
       <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196" s="12"/>
-      <c r="C196" s="13"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="10"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -3538,8 +3538,8 @@
       <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="13"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -3553,8 +3553,8 @@
       <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="13"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="10"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -3568,8 +3568,8 @@
       <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="13"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -3583,8 +3583,8 @@
       <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200" s="12"/>
-      <c r="C200" s="13"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="10"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -3598,8 +3598,8 @@
       <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="13"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="10"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -3613,8 +3613,8 @@
       <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202" s="12"/>
-      <c r="C202" s="13"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="10"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -3628,8 +3628,8 @@
       <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203" s="12"/>
-      <c r="C203" s="13"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="10"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -3643,8 +3643,8 @@
       <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204" s="12"/>
-      <c r="C204" s="13"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="10"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -3658,8 +3658,8 @@
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="12"/>
-      <c r="C205" s="13"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="10"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -3673,8 +3673,8 @@
       <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206" s="12"/>
-      <c r="C206" s="13"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="10"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -3688,8 +3688,8 @@
       <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207" s="12"/>
-      <c r="C207" s="13"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="10"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -3703,8 +3703,8 @@
       <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208" s="12"/>
-      <c r="C208" s="13"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="10"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -3718,8 +3718,8 @@
       <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="13"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -3733,8 +3733,8 @@
       <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210" s="12"/>
-      <c r="C210" s="13"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="10"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -3748,8 +3748,8 @@
       <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211" s="12"/>
-      <c r="C211" s="13"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="10"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -3763,8 +3763,8 @@
       <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212" s="12"/>
-      <c r="C212" s="13"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -3778,8 +3778,8 @@
       <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="12"/>
-      <c r="C213" s="13"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="10"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
@@ -3793,8 +3793,8 @@
       <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214" s="12"/>
-      <c r="C214" s="13"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="10"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -3808,8 +3808,8 @@
       <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="12"/>
-      <c r="C215" s="13"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="10"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
@@ -3823,8 +3823,8 @@
       <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216" s="12"/>
-      <c r="C216" s="13"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="10"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -3838,8 +3838,8 @@
       <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="12"/>
-      <c r="C217" s="13"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="10"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -3853,8 +3853,8 @@
       <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="12"/>
-      <c r="C218" s="13"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="10"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -3868,8 +3868,8 @@
       <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219" s="12"/>
-      <c r="C219" s="13"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="10"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -3883,8 +3883,8 @@
       <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220" s="12"/>
-      <c r="C220" s="13"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="10"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -3898,8 +3898,8 @@
       <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221" s="12"/>
-      <c r="C221" s="13"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="10"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -3913,8 +3913,8 @@
       <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222" s="12"/>
-      <c r="C222" s="13"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="10"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -3928,8 +3928,8 @@
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="12"/>
-      <c r="C223" s="13"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="10"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -3943,8 +3943,8 @@
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="12"/>
-      <c r="C224" s="13"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="10"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -3958,8 +3958,8 @@
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="12"/>
-      <c r="C225" s="13"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="10"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -3973,8 +3973,8 @@
       <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="12"/>
-      <c r="C226" s="13"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="10"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -3988,8 +3988,8 @@
       <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="13"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="10"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -4003,8 +4003,8 @@
       <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="13"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="10"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -4018,8 +4018,8 @@
       <c r="A229" s="4">
         <v>228</v>
       </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="13"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="10"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -4033,8 +4033,8 @@
       <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230" s="12"/>
-      <c r="C230" s="13"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="10"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -4048,8 +4048,8 @@
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="13"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -4063,8 +4063,8 @@
       <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="12"/>
-      <c r="C232" s="13"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="10"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -4078,8 +4078,8 @@
       <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="13"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="10"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -4093,8 +4093,8 @@
       <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234" s="12"/>
-      <c r="C234" s="13"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="10"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -4108,8 +4108,8 @@
       <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235" s="12"/>
-      <c r="C235" s="13"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="10"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -4123,8 +4123,8 @@
       <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236" s="12"/>
-      <c r="C236" s="13"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="10"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -4138,8 +4138,8 @@
       <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="13"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="10"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -4153,8 +4153,8 @@
       <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238" s="12"/>
-      <c r="C238" s="13"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="10"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -4168,8 +4168,8 @@
       <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="13"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="10"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -4183,8 +4183,8 @@
       <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240" s="12"/>
-      <c r="C240" s="13"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="10"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -4198,8 +4198,8 @@
       <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="13"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="10"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -4213,8 +4213,8 @@
       <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242" s="12"/>
-      <c r="C242" s="13"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="10"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -4228,8 +4228,8 @@
       <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243" s="12"/>
-      <c r="C243" s="13"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="10"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -4243,8 +4243,8 @@
       <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244" s="12"/>
-      <c r="C244" s="13"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="10"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -4258,8 +4258,8 @@
       <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245" s="12"/>
-      <c r="C245" s="13"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="10"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -4273,8 +4273,8 @@
       <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246" s="12"/>
-      <c r="C246" s="13"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="10"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -4288,8 +4288,8 @@
       <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247" s="12"/>
-      <c r="C247" s="13"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="10"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -4303,8 +4303,8 @@
       <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248" s="12"/>
-      <c r="C248" s="13"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="10"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -4318,8 +4318,8 @@
       <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249" s="12"/>
-      <c r="C249" s="13"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="10"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -4333,8 +4333,8 @@
       <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250" s="12"/>
-      <c r="C250" s="13"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="10"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -4348,8 +4348,8 @@
       <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="13"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="10"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -4363,8 +4363,8 @@
       <c r="A252" s="4">
         <v>251</v>
       </c>
-      <c r="B252" s="12"/>
-      <c r="C252" s="13"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="10"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -4378,8 +4378,8 @@
       <c r="A253" s="4">
         <v>252</v>
       </c>
-      <c r="B253" s="12"/>
-      <c r="C253" s="13"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="10"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -4393,8 +4393,8 @@
       <c r="A254" s="4">
         <v>253</v>
       </c>
-      <c r="B254" s="12"/>
-      <c r="C254" s="13"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="10"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -4408,8 +4408,8 @@
       <c r="A255" s="4">
         <v>254</v>
       </c>
-      <c r="B255" s="12"/>
-      <c r="C255" s="13"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -4423,8 +4423,8 @@
       <c r="A256" s="4">
         <v>255</v>
       </c>
-      <c r="B256" s="12"/>
-      <c r="C256" s="13"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="10"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -4438,8 +4438,8 @@
       <c r="A257" s="4">
         <v>256</v>
       </c>
-      <c r="B257" s="12"/>
-      <c r="C257" s="13"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="10"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -4453,8 +4453,8 @@
       <c r="A258" s="4">
         <v>257</v>
       </c>
-      <c r="B258" s="12"/>
-      <c r="C258" s="13"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="10"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -4468,8 +4468,8 @@
       <c r="A259" s="4">
         <v>258</v>
       </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="13"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="10"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -4483,8 +4483,8 @@
       <c r="A260" s="4">
         <v>259</v>
       </c>
-      <c r="B260" s="12"/>
-      <c r="C260" s="13"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="10"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
@@ -4498,8 +4498,8 @@
       <c r="A261" s="4">
         <v>260</v>
       </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="13"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="10"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -4513,8 +4513,8 @@
       <c r="A262" s="4">
         <v>261</v>
       </c>
-      <c r="B262" s="12"/>
-      <c r="C262" s="13"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="10"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -4528,8 +4528,8 @@
       <c r="A263" s="4">
         <v>262</v>
       </c>
-      <c r="B263" s="12"/>
-      <c r="C263" s="13"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="10"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -4543,8 +4543,8 @@
       <c r="A264" s="4">
         <v>263</v>
       </c>
-      <c r="B264" s="12"/>
-      <c r="C264" s="13"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="10"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -4558,8 +4558,8 @@
       <c r="A265" s="4">
         <v>264</v>
       </c>
-      <c r="B265" s="12"/>
-      <c r="C265" s="13"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="10"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -4573,8 +4573,8 @@
       <c r="A266" s="4">
         <v>265</v>
       </c>
-      <c r="B266" s="12"/>
-      <c r="C266" s="13"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="10"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -4588,8 +4588,8 @@
       <c r="A267" s="4">
         <v>266</v>
       </c>
-      <c r="B267" s="12"/>
-      <c r="C267" s="13"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="10"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
@@ -4603,8 +4603,8 @@
       <c r="A268" s="4">
         <v>267</v>
       </c>
-      <c r="B268" s="12"/>
-      <c r="C268" s="13"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="10"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -4618,8 +4618,8 @@
       <c r="A269" s="4">
         <v>268</v>
       </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="13"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="10"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -4633,8 +4633,8 @@
       <c r="A270" s="4">
         <v>269</v>
       </c>
-      <c r="B270" s="12"/>
-      <c r="C270" s="13"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="10"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -4648,8 +4648,8 @@
       <c r="A271" s="4">
         <v>270</v>
       </c>
-      <c r="B271" s="12"/>
-      <c r="C271" s="13"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="10"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -4663,8 +4663,8 @@
       <c r="A272" s="4">
         <v>271</v>
       </c>
-      <c r="B272" s="12"/>
-      <c r="C272" s="13"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="10"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -4678,8 +4678,8 @@
       <c r="A273" s="4">
         <v>272</v>
       </c>
-      <c r="B273" s="12"/>
-      <c r="C273" s="13"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="10"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
@@ -4693,8 +4693,8 @@
       <c r="A274" s="4">
         <v>273</v>
       </c>
-      <c r="B274" s="12"/>
-      <c r="C274" s="13"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="10"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
@@ -4708,8 +4708,8 @@
       <c r="A275" s="4">
         <v>274</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="13"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="10"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
@@ -4723,8 +4723,8 @@
       <c r="A276" s="4">
         <v>275</v>
       </c>
-      <c r="B276" s="12"/>
-      <c r="C276" s="13"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="10"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
@@ -4738,8 +4738,8 @@
       <c r="A277" s="4">
         <v>276</v>
       </c>
-      <c r="B277" s="12"/>
-      <c r="C277" s="13"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="10"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
@@ -4753,8 +4753,8 @@
       <c r="A278" s="4">
         <v>277</v>
       </c>
-      <c r="B278" s="12"/>
-      <c r="C278" s="13"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="10"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -4768,8 +4768,8 @@
       <c r="A279" s="4">
         <v>278</v>
       </c>
-      <c r="B279" s="12"/>
-      <c r="C279" s="13"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="10"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -4783,8 +4783,8 @@
       <c r="A280" s="4">
         <v>279</v>
       </c>
-      <c r="B280" s="12"/>
-      <c r="C280" s="13"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="10"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -4798,8 +4798,8 @@
       <c r="A281" s="4">
         <v>280</v>
       </c>
-      <c r="B281" s="12"/>
-      <c r="C281" s="13"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="10"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -4813,8 +4813,8 @@
       <c r="A282" s="4">
         <v>281</v>
       </c>
-      <c r="B282" s="12"/>
-      <c r="C282" s="13"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="10"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -4828,8 +4828,8 @@
       <c r="A283" s="4">
         <v>282</v>
       </c>
-      <c r="B283" s="12"/>
-      <c r="C283" s="13"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="10"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -4843,8 +4843,8 @@
       <c r="A284" s="4">
         <v>283</v>
       </c>
-      <c r="B284" s="12"/>
-      <c r="C284" s="13"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="10"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
@@ -4858,8 +4858,8 @@
       <c r="A285" s="4">
         <v>284</v>
       </c>
-      <c r="B285" s="12"/>
-      <c r="C285" s="13"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="10"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -4873,8 +4873,8 @@
       <c r="A286" s="4">
         <v>285</v>
       </c>
-      <c r="B286" s="12"/>
-      <c r="C286" s="13"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="10"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -4888,8 +4888,8 @@
       <c r="A287" s="4">
         <v>286</v>
       </c>
-      <c r="B287" s="12"/>
-      <c r="C287" s="13"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="10"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -4903,8 +4903,8 @@
       <c r="A288" s="4">
         <v>287</v>
       </c>
-      <c r="B288" s="12"/>
-      <c r="C288" s="13"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="10"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -4918,8 +4918,8 @@
       <c r="A289" s="4">
         <v>288</v>
       </c>
-      <c r="B289" s="12"/>
-      <c r="C289" s="13"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="10"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -4933,8 +4933,8 @@
       <c r="A290" s="4">
         <v>289</v>
       </c>
-      <c r="B290" s="12"/>
-      <c r="C290" s="13"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="10"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -4948,8 +4948,8 @@
       <c r="A291" s="4">
         <v>290</v>
       </c>
-      <c r="B291" s="12"/>
-      <c r="C291" s="13"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="10"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -4963,8 +4963,8 @@
       <c r="A292" s="4">
         <v>291</v>
       </c>
-      <c r="B292" s="12"/>
-      <c r="C292" s="13"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="10"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -4978,8 +4978,8 @@
       <c r="A293" s="4">
         <v>292</v>
       </c>
-      <c r="B293" s="12"/>
-      <c r="C293" s="13"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="10"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -4993,8 +4993,8 @@
       <c r="A294" s="4">
         <v>293</v>
       </c>
-      <c r="B294" s="12"/>
-      <c r="C294" s="13"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="10"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -5008,8 +5008,8 @@
       <c r="A295" s="4">
         <v>294</v>
       </c>
-      <c r="B295" s="12"/>
-      <c r="C295" s="13"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="10"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -5023,8 +5023,8 @@
       <c r="A296" s="4">
         <v>295</v>
       </c>
-      <c r="B296" s="12"/>
-      <c r="C296" s="13"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="10"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -5038,8 +5038,8 @@
       <c r="A297" s="4">
         <v>296</v>
       </c>
-      <c r="B297" s="12"/>
-      <c r="C297" s="13"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="10"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -5053,8 +5053,8 @@
       <c r="A298" s="4">
         <v>297</v>
       </c>
-      <c r="B298" s="12"/>
-      <c r="C298" s="13"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="10"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -5068,8 +5068,8 @@
       <c r="A299" s="4">
         <v>298</v>
       </c>
-      <c r="B299" s="12"/>
-      <c r="C299" s="13"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="10"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -5083,8 +5083,8 @@
       <c r="A300" s="4">
         <v>299</v>
       </c>
-      <c r="B300" s="12"/>
-      <c r="C300" s="13"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="10"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
@@ -5098,8 +5098,8 @@
       <c r="A301" s="4">
         <v>300</v>
       </c>
-      <c r="B301" s="12"/>
-      <c r="C301" s="13"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="10"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -5113,8 +5113,8 @@
       <c r="A302" s="4">
         <v>301</v>
       </c>
-      <c r="B302" s="12"/>
-      <c r="C302" s="13"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="10"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -5128,8 +5128,8 @@
       <c r="A303" s="4">
         <v>302</v>
       </c>
-      <c r="B303" s="12"/>
-      <c r="C303" s="13"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="10"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -5143,8 +5143,8 @@
       <c r="A304" s="4">
         <v>303</v>
       </c>
-      <c r="B304" s="12"/>
-      <c r="C304" s="13"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="10"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -5158,8 +5158,8 @@
       <c r="A305" s="4">
         <v>304</v>
       </c>
-      <c r="B305" s="12"/>
-      <c r="C305" s="13"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="10"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -5173,8 +5173,8 @@
       <c r="A306" s="4">
         <v>305</v>
       </c>
-      <c r="B306" s="12"/>
-      <c r="C306" s="13"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="10"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -5188,8 +5188,8 @@
       <c r="A307" s="4">
         <v>306</v>
       </c>
-      <c r="B307" s="12"/>
-      <c r="C307" s="13"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="10"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -5203,8 +5203,8 @@
       <c r="A308" s="4">
         <v>307</v>
       </c>
-      <c r="B308" s="12"/>
-      <c r="C308" s="13"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="10"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
@@ -5218,8 +5218,8 @@
       <c r="A309" s="4">
         <v>308</v>
       </c>
-      <c r="B309" s="12"/>
-      <c r="C309" s="13"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="10"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
@@ -5233,8 +5233,8 @@
       <c r="A310" s="4">
         <v>309</v>
       </c>
-      <c r="B310" s="12"/>
-      <c r="C310" s="13"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="10"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -5248,8 +5248,8 @@
       <c r="A311" s="4">
         <v>310</v>
       </c>
-      <c r="B311" s="12"/>
-      <c r="C311" s="13"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="10"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
@@ -5263,8 +5263,8 @@
       <c r="A312" s="4">
         <v>311</v>
       </c>
-      <c r="B312" s="12"/>
-      <c r="C312" s="13"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="10"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
@@ -5278,8 +5278,8 @@
       <c r="A313" s="4">
         <v>312</v>
       </c>
-      <c r="B313" s="12"/>
-      <c r="C313" s="13"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="10"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
@@ -5293,8 +5293,8 @@
       <c r="A314" s="4">
         <v>313</v>
       </c>
-      <c r="B314" s="12"/>
-      <c r="C314" s="13"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="10"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
@@ -5308,8 +5308,8 @@
       <c r="A315" s="4">
         <v>314</v>
       </c>
-      <c r="B315" s="12"/>
-      <c r="C315" s="13"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="10"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
@@ -5323,8 +5323,8 @@
       <c r="A316" s="4">
         <v>315</v>
       </c>
-      <c r="B316" s="12"/>
-      <c r="C316" s="13"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="10"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
@@ -5338,8 +5338,8 @@
       <c r="A317" s="4">
         <v>316</v>
       </c>
-      <c r="B317" s="12"/>
-      <c r="C317" s="13"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="10"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
@@ -5353,8 +5353,8 @@
       <c r="A318" s="4">
         <v>317</v>
       </c>
-      <c r="B318" s="12"/>
-      <c r="C318" s="13"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="10"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
@@ -5368,8 +5368,8 @@
       <c r="A319" s="4">
         <v>318</v>
       </c>
-      <c r="B319" s="12"/>
-      <c r="C319" s="13"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="10"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
@@ -5383,8 +5383,8 @@
       <c r="A320" s="4">
         <v>319</v>
       </c>
-      <c r="B320" s="12"/>
-      <c r="C320" s="13"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="10"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
@@ -5398,8 +5398,8 @@
       <c r="A321" s="4">
         <v>320</v>
       </c>
-      <c r="B321" s="12"/>
-      <c r="C321" s="13"/>
+      <c r="B321" s="9"/>
+      <c r="C321" s="10"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
@@ -5413,8 +5413,8 @@
       <c r="A322" s="4">
         <v>321</v>
       </c>
-      <c r="B322" s="12"/>
-      <c r="C322" s="13"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="10"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
@@ -5428,8 +5428,8 @@
       <c r="A323" s="4">
         <v>322</v>
       </c>
-      <c r="B323" s="12"/>
-      <c r="C323" s="13"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="10"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
@@ -5443,8 +5443,8 @@
       <c r="A324" s="4">
         <v>323</v>
       </c>
-      <c r="B324" s="12"/>
-      <c r="C324" s="13"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="10"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
@@ -5458,8 +5458,8 @@
       <c r="A325" s="4">
         <v>324</v>
       </c>
-      <c r="B325" s="12"/>
-      <c r="C325" s="13"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="10"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -5473,8 +5473,8 @@
       <c r="A326" s="4">
         <v>325</v>
       </c>
-      <c r="B326" s="12"/>
-      <c r="C326" s="13"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="10"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -5488,8 +5488,8 @@
       <c r="A327" s="4">
         <v>326</v>
       </c>
-      <c r="B327" s="12"/>
-      <c r="C327" s="13"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="10"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -5503,8 +5503,8 @@
       <c r="A328" s="4">
         <v>327</v>
       </c>
-      <c r="B328" s="12"/>
-      <c r="C328" s="13"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="10"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -5518,8 +5518,8 @@
       <c r="A329" s="4">
         <v>328</v>
       </c>
-      <c r="B329" s="12"/>
-      <c r="C329" s="13"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="10"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -5533,8 +5533,8 @@
       <c r="A330" s="4">
         <v>329</v>
       </c>
-      <c r="B330" s="12"/>
-      <c r="C330" s="13"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="10"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -5548,8 +5548,8 @@
       <c r="A331" s="4">
         <v>330</v>
       </c>
-      <c r="B331" s="12"/>
-      <c r="C331" s="13"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="10"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -5563,8 +5563,8 @@
       <c r="A332" s="4">
         <v>331</v>
       </c>
-      <c r="B332" s="12"/>
-      <c r="C332" s="13"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="10"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -5578,8 +5578,8 @@
       <c r="A333" s="4">
         <v>332</v>
       </c>
-      <c r="B333" s="12"/>
-      <c r="C333" s="13"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="10"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -5593,8 +5593,8 @@
       <c r="A334" s="4">
         <v>333</v>
       </c>
-      <c r="B334" s="12"/>
-      <c r="C334" s="13"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="10"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -5608,8 +5608,8 @@
       <c r="A335" s="4">
         <v>334</v>
       </c>
-      <c r="B335" s="12"/>
-      <c r="C335" s="13"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="10"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -5623,8 +5623,8 @@
       <c r="A336" s="4">
         <v>335</v>
       </c>
-      <c r="B336" s="12"/>
-      <c r="C336" s="13"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="10"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -5638,8 +5638,8 @@
       <c r="A337" s="4">
         <v>336</v>
       </c>
-      <c r="B337" s="12"/>
-      <c r="C337" s="13"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="10"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -5653,8 +5653,8 @@
       <c r="A338" s="4">
         <v>337</v>
       </c>
-      <c r="B338" s="12"/>
-      <c r="C338" s="13"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="10"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -5668,8 +5668,8 @@
       <c r="A339" s="4">
         <v>338</v>
       </c>
-      <c r="B339" s="12"/>
-      <c r="C339" s="13"/>
+      <c r="B339" s="9"/>
+      <c r="C339" s="10"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -5683,8 +5683,8 @@
       <c r="A340" s="4">
         <v>339</v>
       </c>
-      <c r="B340" s="12"/>
-      <c r="C340" s="13"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="10"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -5698,8 +5698,8 @@
       <c r="A341" s="4">
         <v>340</v>
       </c>
-      <c r="B341" s="12"/>
-      <c r="C341" s="13"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="10"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -5713,8 +5713,8 @@
       <c r="A342" s="4">
         <v>341</v>
       </c>
-      <c r="B342" s="12"/>
-      <c r="C342" s="13"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="10"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -5728,8 +5728,8 @@
       <c r="A343" s="4">
         <v>342</v>
       </c>
-      <c r="B343" s="12"/>
-      <c r="C343" s="13"/>
+      <c r="B343" s="9"/>
+      <c r="C343" s="10"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -5743,8 +5743,8 @@
       <c r="A344" s="4">
         <v>343</v>
       </c>
-      <c r="B344" s="12"/>
-      <c r="C344" s="13"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="10"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -5758,8 +5758,8 @@
       <c r="A345" s="4">
         <v>344</v>
       </c>
-      <c r="B345" s="12"/>
-      <c r="C345" s="13"/>
+      <c r="B345" s="9"/>
+      <c r="C345" s="10"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -5773,8 +5773,8 @@
       <c r="A346" s="4">
         <v>345</v>
       </c>
-      <c r="B346" s="12"/>
-      <c r="C346" s="13"/>
+      <c r="B346" s="9"/>
+      <c r="C346" s="10"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -5788,8 +5788,8 @@
       <c r="A347" s="4">
         <v>346</v>
       </c>
-      <c r="B347" s="12"/>
-      <c r="C347" s="13"/>
+      <c r="B347" s="9"/>
+      <c r="C347" s="10"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
@@ -5803,8 +5803,8 @@
       <c r="A348" s="4">
         <v>347</v>
       </c>
-      <c r="B348" s="12"/>
-      <c r="C348" s="13"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="10"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
@@ -5818,8 +5818,8 @@
       <c r="A349" s="4">
         <v>348</v>
       </c>
-      <c r="B349" s="12"/>
-      <c r="C349" s="13"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="10"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
@@ -5833,8 +5833,8 @@
       <c r="A350" s="4">
         <v>349</v>
       </c>
-      <c r="B350" s="12"/>
-      <c r="C350" s="13"/>
+      <c r="B350" s="9"/>
+      <c r="C350" s="10"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -5848,8 +5848,8 @@
       <c r="A351" s="4">
         <v>350</v>
       </c>
-      <c r="B351" s="12"/>
-      <c r="C351" s="13"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="10"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
@@ -5863,8 +5863,8 @@
       <c r="A352" s="4">
         <v>351</v>
       </c>
-      <c r="B352" s="12"/>
-      <c r="C352" s="13"/>
+      <c r="B352" s="9"/>
+      <c r="C352" s="10"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
@@ -5878,8 +5878,8 @@
       <c r="A353" s="4">
         <v>352</v>
       </c>
-      <c r="B353" s="12"/>
-      <c r="C353" s="13"/>
+      <c r="B353" s="9"/>
+      <c r="C353" s="10"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
@@ -5893,8 +5893,8 @@
       <c r="A354" s="4">
         <v>353</v>
       </c>
-      <c r="B354" s="12"/>
-      <c r="C354" s="13"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="10"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
@@ -5908,8 +5908,8 @@
       <c r="A355" s="4">
         <v>354</v>
       </c>
-      <c r="B355" s="12"/>
-      <c r="C355" s="13"/>
+      <c r="B355" s="9"/>
+      <c r="C355" s="10"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
@@ -5923,8 +5923,8 @@
       <c r="A356" s="4">
         <v>355</v>
       </c>
-      <c r="B356" s="12"/>
-      <c r="C356" s="13"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="10"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
@@ -5938,8 +5938,8 @@
       <c r="A357" s="4">
         <v>356</v>
       </c>
-      <c r="B357" s="12"/>
-      <c r="C357" s="13"/>
+      <c r="B357" s="9"/>
+      <c r="C357" s="10"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
@@ -5953,8 +5953,8 @@
       <c r="A358" s="4">
         <v>357</v>
       </c>
-      <c r="B358" s="12"/>
-      <c r="C358" s="13"/>
+      <c r="B358" s="9"/>
+      <c r="C358" s="10"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
@@ -5968,8 +5968,8 @@
       <c r="A359" s="4">
         <v>358</v>
       </c>
-      <c r="B359" s="12"/>
-      <c r="C359" s="13"/>
+      <c r="B359" s="9"/>
+      <c r="C359" s="10"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
@@ -5983,8 +5983,8 @@
       <c r="A360" s="4">
         <v>359</v>
       </c>
-      <c r="B360" s="12"/>
-      <c r="C360" s="13"/>
+      <c r="B360" s="9"/>
+      <c r="C360" s="10"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
@@ -5998,8 +5998,8 @@
       <c r="A361" s="4">
         <v>360</v>
       </c>
-      <c r="B361" s="12"/>
-      <c r="C361" s="13"/>
+      <c r="B361" s="9"/>
+      <c r="C361" s="10"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -6013,8 +6013,8 @@
       <c r="A362" s="4">
         <v>361</v>
       </c>
-      <c r="B362" s="12"/>
-      <c r="C362" s="13"/>
+      <c r="B362" s="9"/>
+      <c r="C362" s="10"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
@@ -6028,8 +6028,8 @@
       <c r="A363" s="4">
         <v>362</v>
       </c>
-      <c r="B363" s="12"/>
-      <c r="C363" s="13"/>
+      <c r="B363" s="9"/>
+      <c r="C363" s="10"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
@@ -6043,8 +6043,8 @@
       <c r="A364" s="4">
         <v>363</v>
       </c>
-      <c r="B364" s="12"/>
-      <c r="C364" s="13"/>
+      <c r="B364" s="9"/>
+      <c r="C364" s="10"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
@@ -6058,8 +6058,8 @@
       <c r="A365" s="4">
         <v>364</v>
       </c>
-      <c r="B365" s="12"/>
-      <c r="C365" s="13"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="10"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
@@ -6073,8 +6073,8 @@
       <c r="A366" s="4">
         <v>365</v>
       </c>
-      <c r="B366" s="12"/>
-      <c r="C366" s="13"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="10"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -6088,8 +6088,8 @@
       <c r="A367" s="4">
         <v>366</v>
       </c>
-      <c r="B367" s="12"/>
-      <c r="C367" s="13"/>
+      <c r="B367" s="9"/>
+      <c r="C367" s="10"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
@@ -6103,8 +6103,8 @@
       <c r="A368" s="4">
         <v>367</v>
       </c>
-      <c r="B368" s="12"/>
-      <c r="C368" s="13"/>
+      <c r="B368" s="9"/>
+      <c r="C368" s="10"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
@@ -6118,8 +6118,8 @@
       <c r="A369" s="4">
         <v>368</v>
       </c>
-      <c r="B369" s="12"/>
-      <c r="C369" s="13"/>
+      <c r="B369" s="9"/>
+      <c r="C369" s="10"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
@@ -6133,8 +6133,8 @@
       <c r="A370" s="4">
         <v>369</v>
       </c>
-      <c r="B370" s="12"/>
-      <c r="C370" s="13"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="10"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
@@ -6148,8 +6148,8 @@
       <c r="A371" s="4">
         <v>370</v>
       </c>
-      <c r="B371" s="12"/>
-      <c r="C371" s="13"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="10"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
@@ -6163,8 +6163,8 @@
       <c r="A372" s="4">
         <v>371</v>
       </c>
-      <c r="B372" s="12"/>
-      <c r="C372" s="13"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="10"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
@@ -6178,8 +6178,8 @@
       <c r="A373" s="4">
         <v>372</v>
       </c>
-      <c r="B373" s="12"/>
-      <c r="C373" s="13"/>
+      <c r="B373" s="9"/>
+      <c r="C373" s="10"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
@@ -6193,8 +6193,8 @@
       <c r="A374" s="4">
         <v>373</v>
       </c>
-      <c r="B374" s="12"/>
-      <c r="C374" s="13"/>
+      <c r="B374" s="9"/>
+      <c r="C374" s="10"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
@@ -6208,8 +6208,8 @@
       <c r="A375" s="4">
         <v>374</v>
       </c>
-      <c r="B375" s="12"/>
-      <c r="C375" s="13"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="10"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
@@ -6223,8 +6223,8 @@
       <c r="A376" s="4">
         <v>375</v>
       </c>
-      <c r="B376" s="12"/>
-      <c r="C376" s="13"/>
+      <c r="B376" s="9"/>
+      <c r="C376" s="10"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
@@ -6238,8 +6238,8 @@
       <c r="A377" s="4">
         <v>376</v>
       </c>
-      <c r="B377" s="12"/>
-      <c r="C377" s="13"/>
+      <c r="B377" s="9"/>
+      <c r="C377" s="10"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
@@ -6253,8 +6253,8 @@
       <c r="A378" s="4">
         <v>377</v>
       </c>
-      <c r="B378" s="12"/>
-      <c r="C378" s="13"/>
+      <c r="B378" s="9"/>
+      <c r="C378" s="10"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
@@ -6268,8 +6268,8 @@
       <c r="A379" s="4">
         <v>378</v>
       </c>
-      <c r="B379" s="12"/>
-      <c r="C379" s="13"/>
+      <c r="B379" s="9"/>
+      <c r="C379" s="10"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
@@ -6283,8 +6283,8 @@
       <c r="A380" s="4">
         <v>379</v>
       </c>
-      <c r="B380" s="12"/>
-      <c r="C380" s="13"/>
+      <c r="B380" s="9"/>
+      <c r="C380" s="10"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
@@ -6298,8 +6298,8 @@
       <c r="A381" s="4">
         <v>380</v>
       </c>
-      <c r="B381" s="12"/>
-      <c r="C381" s="13"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="10"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
@@ -6313,8 +6313,8 @@
       <c r="A382" s="4">
         <v>381</v>
       </c>
-      <c r="B382" s="12"/>
-      <c r="C382" s="13"/>
+      <c r="B382" s="9"/>
+      <c r="C382" s="10"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
@@ -6328,8 +6328,8 @@
       <c r="A383" s="4">
         <v>382</v>
       </c>
-      <c r="B383" s="12"/>
-      <c r="C383" s="13"/>
+      <c r="B383" s="9"/>
+      <c r="C383" s="10"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
@@ -6343,8 +6343,8 @@
       <c r="A384" s="4">
         <v>383</v>
       </c>
-      <c r="B384" s="12"/>
-      <c r="C384" s="13"/>
+      <c r="B384" s="9"/>
+      <c r="C384" s="10"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
@@ -6358,8 +6358,8 @@
       <c r="A385" s="4">
         <v>384</v>
       </c>
-      <c r="B385" s="12"/>
-      <c r="C385" s="13"/>
+      <c r="B385" s="9"/>
+      <c r="C385" s="10"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
@@ -6373,8 +6373,8 @@
       <c r="A386" s="4">
         <v>385</v>
       </c>
-      <c r="B386" s="12"/>
-      <c r="C386" s="13"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="10"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
@@ -6388,8 +6388,8 @@
       <c r="A387" s="4">
         <v>386</v>
       </c>
-      <c r="B387" s="12"/>
-      <c r="C387" s="13"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="10"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
@@ -6403,8 +6403,8 @@
       <c r="A388" s="4">
         <v>387</v>
       </c>
-      <c r="B388" s="12"/>
-      <c r="C388" s="13"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="10"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
@@ -6418,8 +6418,8 @@
       <c r="A389" s="4">
         <v>388</v>
       </c>
-      <c r="B389" s="12"/>
-      <c r="C389" s="13"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="10"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
@@ -6433,8 +6433,8 @@
       <c r="A390" s="4">
         <v>389</v>
       </c>
-      <c r="B390" s="12"/>
-      <c r="C390" s="13"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="10"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
@@ -6448,8 +6448,8 @@
       <c r="A391" s="4">
         <v>390</v>
       </c>
-      <c r="B391" s="12"/>
-      <c r="C391" s="13"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="10"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
@@ -6463,8 +6463,8 @@
       <c r="A392" s="4">
         <v>391</v>
       </c>
-      <c r="B392" s="12"/>
-      <c r="C392" s="13"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="10"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
@@ -6478,8 +6478,8 @@
       <c r="A393" s="4">
         <v>392</v>
       </c>
-      <c r="B393" s="12"/>
-      <c r="C393" s="13"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="10"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
@@ -6493,8 +6493,8 @@
       <c r="A394" s="4">
         <v>393</v>
       </c>
-      <c r="B394" s="12"/>
-      <c r="C394" s="13"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="10"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
@@ -6508,8 +6508,8 @@
       <c r="A395" s="4">
         <v>394</v>
       </c>
-      <c r="B395" s="12"/>
-      <c r="C395" s="13"/>
+      <c r="B395" s="9"/>
+      <c r="C395" s="10"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
@@ -6523,8 +6523,8 @@
       <c r="A396" s="4">
         <v>395</v>
       </c>
-      <c r="B396" s="12"/>
-      <c r="C396" s="13"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="10"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
@@ -6538,8 +6538,8 @@
       <c r="A397" s="4">
         <v>396</v>
       </c>
-      <c r="B397" s="12"/>
-      <c r="C397" s="13"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="10"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
@@ -6553,8 +6553,8 @@
       <c r="A398" s="4">
         <v>397</v>
       </c>
-      <c r="B398" s="12"/>
-      <c r="C398" s="13"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="10"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
@@ -6568,8 +6568,8 @@
       <c r="A399" s="4">
         <v>398</v>
       </c>
-      <c r="B399" s="12"/>
-      <c r="C399" s="13"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="10"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
@@ -6583,8 +6583,8 @@
       <c r="A400" s="4">
         <v>399</v>
       </c>
-      <c r="B400" s="12"/>
-      <c r="C400" s="13"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="10"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
@@ -6598,8 +6598,8 @@
       <c r="A401" s="4">
         <v>400</v>
       </c>
-      <c r="B401" s="12"/>
-      <c r="C401" s="13"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="10"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
@@ -6613,8 +6613,8 @@
       <c r="A402" s="4">
         <v>401</v>
       </c>
-      <c r="B402" s="12"/>
-      <c r="C402" s="13"/>
+      <c r="B402" s="9"/>
+      <c r="C402" s="10"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
@@ -6628,8 +6628,8 @@
       <c r="A403" s="4">
         <v>402</v>
       </c>
-      <c r="B403" s="12"/>
-      <c r="C403" s="13"/>
+      <c r="B403" s="9"/>
+      <c r="C403" s="10"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
@@ -6643,8 +6643,8 @@
       <c r="A404" s="4">
         <v>403</v>
       </c>
-      <c r="B404" s="12"/>
-      <c r="C404" s="13"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="10"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
@@ -6658,8 +6658,8 @@
       <c r="A405" s="4">
         <v>404</v>
       </c>
-      <c r="B405" s="12"/>
-      <c r="C405" s="13"/>
+      <c r="B405" s="9"/>
+      <c r="C405" s="10"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
@@ -6673,8 +6673,8 @@
       <c r="A406" s="4">
         <v>405</v>
       </c>
-      <c r="B406" s="12"/>
-      <c r="C406" s="13"/>
+      <c r="B406" s="9"/>
+      <c r="C406" s="10"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
@@ -6685,12 +6685,12 @@
       <c r="K406" s="5"/>
     </row>
     <row r="407" spans="1:11">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B407" s="10"/>
-      <c r="C407" s="10"/>
-      <c r="D407" s="11"/>
+      <c r="B407" s="12"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="13"/>
       <c r="E407" s="6">
         <f>SUM(E2:E406)</f>
         <v>0</v>

--- a/controller/src/main/resources/jxls_templates/lunarbasic.xlsx
+++ b/controller/src/main/resources/jxls_templates/lunarbasic.xlsx
@@ -14,16 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -75,7 +68,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>卡号</t>
+    <t>姓名</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -217,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,14 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -564,22 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K407"/>
+  <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -587,11 +571,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -605,16 +589,13 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -622,14 +603,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -637,14 +617,13 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -652,14 +631,13 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -667,14 +645,13 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -682,14 +659,13 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -697,14 +673,13 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -712,14 +687,13 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -727,14 +701,13 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -742,14 +715,13 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -757,14 +729,13 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -772,14 +743,13 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -787,14 +757,13 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -802,14 +771,13 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -817,14 +785,13 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -832,14 +799,13 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -847,14 +813,13 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -862,14 +827,13 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -877,14 +841,13 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -892,14 +855,13 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -907,14 +869,13 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -922,14 +883,13 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -937,14 +897,13 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -952,14 +911,13 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -967,14 +925,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -982,14 +939,13 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -997,14 +953,13 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1012,14 +967,13 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1027,14 +981,13 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1042,14 +995,13 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1057,14 +1009,13 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1072,14 +1023,13 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1087,14 +1037,13 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1102,14 +1051,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1117,14 +1065,13 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1132,14 +1079,13 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1147,14 +1093,13 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1162,14 +1107,13 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1177,14 +1121,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1192,14 +1135,13 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1207,14 +1149,13 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1222,14 +1163,13 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1237,14 +1177,13 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1252,14 +1191,13 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1267,14 +1205,13 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1282,14 +1219,13 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1297,14 +1233,13 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1312,14 +1247,13 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1327,14 +1261,13 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1342,14 +1275,13 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1357,14 +1289,13 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -1372,14 +1303,13 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -1387,14 +1317,13 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -1402,14 +1331,13 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -1417,14 +1345,13 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -1432,14 +1359,13 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -1447,14 +1373,13 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -1462,14 +1387,13 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -1477,14 +1401,13 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -1492,14 +1415,13 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -1507,14 +1429,13 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -1522,14 +1443,13 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -1537,14 +1457,13 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -1552,14 +1471,13 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -1567,14 +1485,13 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -1582,14 +1499,13 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -1597,14 +1513,13 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -1612,14 +1527,13 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -1627,14 +1541,13 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -1642,14 +1555,13 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -1657,14 +1569,13 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -1672,14 +1583,13 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -1687,14 +1597,13 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -1702,14 +1611,13 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -1717,14 +1625,13 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -1732,14 +1639,13 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -1747,14 +1653,13 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -1762,14 +1667,13 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:11">
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -1777,14 +1681,13 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -1792,14 +1695,13 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -1807,14 +1709,13 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -1822,14 +1723,13 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -1837,14 +1737,13 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -1852,14 +1751,13 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -1867,14 +1765,13 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -1882,14 +1779,13 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -1897,14 +1793,13 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -1912,14 +1807,13 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -1927,14 +1821,13 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -1942,14 +1835,13 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -1957,14 +1849,13 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -1972,14 +1863,13 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -1987,14 +1877,13 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -2002,14 +1891,13 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -2017,14 +1905,13 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="1:11">
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2032,14 +1919,13 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="1:11">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -2047,14 +1933,13 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="1:11">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -2062,14 +1947,13 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="1:11">
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -2077,14 +1961,13 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="1:11">
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -2092,14 +1975,13 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:11">
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="10"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -2107,14 +1989,13 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:11">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="10"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -2122,14 +2003,13 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" spans="1:11">
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2137,14 +2017,13 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" spans="1:11">
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -2152,14 +2031,13 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="1:11">
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="10"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -2167,14 +2045,13 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:11">
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -2182,14 +2059,13 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:11">
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -2197,14 +2073,13 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-    </row>
-    <row r="108" spans="1:11">
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -2212,14 +2087,13 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="1:11">
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -2227,14 +2101,13 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-    </row>
-    <row r="110" spans="1:11">
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="10"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -2242,14 +2115,13 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="1:11">
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="10"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -2257,14 +2129,13 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-    </row>
-    <row r="112" spans="1:11">
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -2272,14 +2143,13 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="1:11">
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -2287,14 +2157,13 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-    </row>
-    <row r="114" spans="1:11">
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="10"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -2302,14 +2171,13 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-    </row>
-    <row r="115" spans="1:11">
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -2317,14 +2185,13 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="1:11">
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="10"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -2332,14 +2199,13 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-    </row>
-    <row r="117" spans="1:11">
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="10"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -2347,14 +2213,13 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="1:11">
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="10"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -2362,14 +2227,13 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="1:11">
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -2377,14 +2241,13 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="1:11">
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="10"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -2392,14 +2255,13 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="1:11">
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -2407,14 +2269,13 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-    </row>
-    <row r="122" spans="1:11">
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -2422,14 +2283,13 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-    </row>
-    <row r="123" spans="1:11">
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -2437,14 +2297,13 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-    </row>
-    <row r="124" spans="1:11">
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -2452,14 +2311,13 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="10"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -2467,14 +2325,13 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-    </row>
-    <row r="126" spans="1:11">
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="10"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -2482,14 +2339,13 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-    </row>
-    <row r="127" spans="1:11">
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -2497,14 +2353,13 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-    </row>
-    <row r="128" spans="1:11">
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="10"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -2512,14 +2367,13 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-    </row>
-    <row r="129" spans="1:11">
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="10"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -2527,14 +2381,13 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="1:11">
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -2542,14 +2395,13 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="10"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -2557,14 +2409,13 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="1:11">
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="10"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -2572,14 +2423,13 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="1:11">
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="10"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -2587,14 +2437,13 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="1:11">
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="10"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -2602,14 +2451,13 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-    </row>
-    <row r="135" spans="1:11">
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="10"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -2617,14 +2465,13 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-    </row>
-    <row r="136" spans="1:11">
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="10"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -2632,14 +2479,13 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="1:11">
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="10"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -2647,14 +2493,13 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="1:11">
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="10"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -2662,14 +2507,13 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="1:11">
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="10"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -2677,14 +2521,13 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="1:11">
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -2692,14 +2535,13 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-    </row>
-    <row r="141" spans="1:11">
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -2707,14 +2549,13 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-    </row>
-    <row r="142" spans="1:11">
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="10"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -2722,14 +2563,13 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-    </row>
-    <row r="143" spans="1:11">
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="10"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -2737,14 +2577,13 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-    </row>
-    <row r="144" spans="1:11">
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="10"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -2752,14 +2591,13 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-    </row>
-    <row r="145" spans="1:11">
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="10"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -2767,14 +2605,13 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-    </row>
-    <row r="146" spans="1:11">
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -2782,14 +2619,13 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-    </row>
-    <row r="147" spans="1:11">
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -2797,14 +2633,13 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-    </row>
-    <row r="148" spans="1:11">
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="10"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -2812,14 +2647,13 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-    </row>
-    <row r="149" spans="1:11">
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="10"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -2827,14 +2661,13 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-    </row>
-    <row r="150" spans="1:11">
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="10"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -2842,14 +2675,13 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-    </row>
-    <row r="151" spans="1:11">
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="10"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -2857,14 +2689,13 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-    </row>
-    <row r="152" spans="1:11">
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="10"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -2872,14 +2703,13 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-    </row>
-    <row r="153" spans="1:11">
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="10"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -2887,14 +2717,13 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="1:11">
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="10"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -2902,14 +2731,13 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="1:11">
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="10"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -2917,14 +2745,13 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-    </row>
-    <row r="156" spans="1:11">
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="10"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
@@ -2932,14 +2759,13 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-    </row>
-    <row r="157" spans="1:11">
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="10"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -2947,14 +2773,13 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-    </row>
-    <row r="158" spans="1:11">
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="10"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -2962,14 +2787,13 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-    </row>
-    <row r="159" spans="1:11">
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="10"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
@@ -2977,14 +2801,13 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-    </row>
-    <row r="160" spans="1:11">
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="10"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
@@ -2992,14 +2815,13 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="1:11">
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="10"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -3007,14 +2829,13 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-    </row>
-    <row r="162" spans="1:11">
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="10"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -3022,14 +2843,13 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-    </row>
-    <row r="163" spans="1:11">
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="10"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -3037,14 +2857,13 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-    </row>
-    <row r="164" spans="1:11">
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="10"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3052,14 +2871,13 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-    </row>
-    <row r="165" spans="1:11">
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="9"/>
-      <c r="C165" s="10"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
@@ -3067,14 +2885,13 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-    </row>
-    <row r="166" spans="1:11">
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="10"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -3082,14 +2899,13 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-    </row>
-    <row r="167" spans="1:11">
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="10"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -3097,14 +2913,13 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-    </row>
-    <row r="168" spans="1:11">
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="10"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -3112,14 +2927,13 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-    </row>
-    <row r="169" spans="1:11">
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="10"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
@@ -3127,14 +2941,13 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-    </row>
-    <row r="170" spans="1:11">
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="9"/>
-      <c r="C170" s="10"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
@@ -3142,14 +2955,13 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-    </row>
-    <row r="171" spans="1:11">
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="10"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
@@ -3157,14 +2969,13 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-    </row>
-    <row r="172" spans="1:11">
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="10"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -3172,14 +2983,13 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-    </row>
-    <row r="173" spans="1:11">
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="10"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -3187,14 +2997,13 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
-    </row>
-    <row r="174" spans="1:11">
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="10"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -3202,14 +3011,13 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-    </row>
-    <row r="175" spans="1:11">
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="10"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -3217,14 +3025,13 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
-    </row>
-    <row r="176" spans="1:11">
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="10"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
@@ -3232,14 +3039,13 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-    </row>
-    <row r="177" spans="1:11">
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="9"/>
-      <c r="C177" s="10"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
@@ -3247,14 +3053,13 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-    </row>
-    <row r="178" spans="1:11">
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -3262,14 +3067,13 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-    </row>
-    <row r="179" spans="1:11">
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -3277,14 +3081,13 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="5"/>
-    </row>
-    <row r="180" spans="1:11">
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
@@ -3292,14 +3095,13 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-    </row>
-    <row r="181" spans="1:11">
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="10"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -3307,14 +3109,13 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-    </row>
-    <row r="182" spans="1:11">
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="10"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -3322,14 +3123,13 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="5"/>
-    </row>
-    <row r="183" spans="1:11">
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="9"/>
-      <c r="C183" s="10"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -3337,14 +3137,13 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-    </row>
-    <row r="184" spans="1:11">
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -3352,14 +3151,13 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
-    </row>
-    <row r="185" spans="1:11">
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="10"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -3367,14 +3165,13 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
-    </row>
-    <row r="186" spans="1:11">
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -3382,14 +3179,13 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-    </row>
-    <row r="187" spans="1:11">
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="9"/>
-      <c r="C187" s="10"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -3397,14 +3193,13 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-    </row>
-    <row r="188" spans="1:11">
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="10"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -3412,14 +3207,13 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
-    </row>
-    <row r="189" spans="1:11">
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="10"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -3427,14 +3221,13 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-    </row>
-    <row r="190" spans="1:11">
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="10"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
@@ -3442,14 +3235,13 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-    </row>
-    <row r="191" spans="1:11">
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="10"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -3457,14 +3249,13 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="5"/>
-    </row>
-    <row r="192" spans="1:11">
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="10"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -3472,14 +3263,13 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-    </row>
-    <row r="193" spans="1:11">
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="10"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -3487,14 +3277,13 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-    </row>
-    <row r="194" spans="1:11">
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="10"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -3502,14 +3291,13 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-    </row>
-    <row r="195" spans="1:11">
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195" s="9"/>
-      <c r="C195" s="10"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
@@ -3517,14 +3305,13 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-    </row>
-    <row r="196" spans="1:11">
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="10"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -3532,14 +3319,13 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-    </row>
-    <row r="197" spans="1:11">
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197" s="9"/>
-      <c r="C197" s="10"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -3547,14 +3333,13 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-    </row>
-    <row r="198" spans="1:11">
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="10"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -3562,14 +3347,13 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-    </row>
-    <row r="199" spans="1:11">
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="10"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -3577,14 +3361,13 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-    </row>
-    <row r="200" spans="1:11">
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -3592,14 +3375,13 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-    </row>
-    <row r="201" spans="1:11">
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="10"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -3607,14 +3389,13 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-    </row>
-    <row r="202" spans="1:11">
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="10"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -3622,14 +3403,13 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="5"/>
-    </row>
-    <row r="203" spans="1:11">
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="10"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -3637,14 +3417,13 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-    </row>
-    <row r="204" spans="1:11">
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="10"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -3652,14 +3431,13 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="5"/>
-    </row>
-    <row r="205" spans="1:11">
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -3667,14 +3445,13 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="5"/>
-    </row>
-    <row r="206" spans="1:11">
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206" s="9"/>
-      <c r="C206" s="10"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -3682,14 +3459,13 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
-    </row>
-    <row r="207" spans="1:11">
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207" s="9"/>
-      <c r="C207" s="10"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -3697,14 +3473,13 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-    </row>
-    <row r="208" spans="1:11">
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="10"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -3712,14 +3487,13 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-    </row>
-    <row r="209" spans="1:11">
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209" s="9"/>
-      <c r="C209" s="10"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -3727,14 +3501,13 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-    </row>
-    <row r="210" spans="1:11">
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210" s="9"/>
-      <c r="C210" s="10"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -3742,14 +3515,13 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-    </row>
-    <row r="211" spans="1:11">
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="10"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -3757,14 +3529,13 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-    </row>
-    <row r="212" spans="1:11">
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212" s="9"/>
-      <c r="C212" s="10"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -3772,14 +3543,13 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-    </row>
-    <row r="213" spans="1:11">
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="10"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
@@ -3787,14 +3557,13 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-    </row>
-    <row r="214" spans="1:11">
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214" s="9"/>
-      <c r="C214" s="10"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -3802,14 +3571,13 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-    </row>
-    <row r="215" spans="1:11">
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="9"/>
-      <c r="C215" s="10"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
@@ -3817,14 +3585,13 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="5"/>
-    </row>
-    <row r="216" spans="1:11">
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216" s="9"/>
-      <c r="C216" s="10"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -3832,14 +3599,13 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-    </row>
-    <row r="217" spans="1:11">
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="9"/>
-      <c r="C217" s="10"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -3847,14 +3613,13 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
-    </row>
-    <row r="218" spans="1:11">
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="9"/>
-      <c r="C218" s="10"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -3862,14 +3627,13 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
-    </row>
-    <row r="219" spans="1:11">
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="10"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -3877,14 +3641,13 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="5"/>
-    </row>
-    <row r="220" spans="1:11">
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="10"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -3892,14 +3655,13 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
-    </row>
-    <row r="221" spans="1:11">
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="10"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -3907,14 +3669,13 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="5"/>
-    </row>
-    <row r="222" spans="1:11">
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222" s="9"/>
-      <c r="C222" s="10"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -3922,14 +3683,13 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
-    </row>
-    <row r="223" spans="1:11">
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="9"/>
-      <c r="C223" s="10"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -3937,14 +3697,13 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-    </row>
-    <row r="224" spans="1:11">
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="10"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -3952,14 +3711,13 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="5"/>
-    </row>
-    <row r="225" spans="1:11">
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="10"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -3967,14 +3725,13 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="5"/>
-    </row>
-    <row r="226" spans="1:11">
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="9"/>
-      <c r="C226" s="10"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -3982,14 +3739,13 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="5"/>
-    </row>
-    <row r="227" spans="1:11">
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227" s="9"/>
-      <c r="C227" s="10"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -3997,14 +3753,13 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-    </row>
-    <row r="228" spans="1:11">
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228" s="9"/>
-      <c r="C228" s="10"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -4012,14 +3767,13 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
-    </row>
-    <row r="229" spans="1:11">
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="4">
         <v>228</v>
       </c>
-      <c r="B229" s="9"/>
-      <c r="C229" s="10"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -4027,14 +3781,13 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-    </row>
-    <row r="230" spans="1:11">
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230" s="9"/>
-      <c r="C230" s="10"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -4042,14 +3795,13 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-    </row>
-    <row r="231" spans="1:11">
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -4057,14 +3809,13 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
-    </row>
-    <row r="232" spans="1:11">
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="9"/>
-      <c r="C232" s="10"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -4072,14 +3823,13 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
-    </row>
-    <row r="233" spans="1:11">
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233" s="9"/>
-      <c r="C233" s="10"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -4087,14 +3837,13 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-    </row>
-    <row r="234" spans="1:11">
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="10"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -4102,14 +3851,13 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-    </row>
-    <row r="235" spans="1:11">
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235" s="9"/>
-      <c r="C235" s="10"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -4117,14 +3865,13 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-    </row>
-    <row r="236" spans="1:11">
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="10"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -4132,14 +3879,13 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-    </row>
-    <row r="237" spans="1:11">
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237" s="9"/>
-      <c r="C237" s="10"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -4147,14 +3893,13 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-    </row>
-    <row r="238" spans="1:11">
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="10"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -4162,14 +3907,13 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-    </row>
-    <row r="239" spans="1:11">
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239" s="9"/>
-      <c r="C239" s="10"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -4177,14 +3921,13 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-    </row>
-    <row r="240" spans="1:11">
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="10"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -4192,14 +3935,13 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-    </row>
-    <row r="241" spans="1:11">
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241" s="9"/>
-      <c r="C241" s="10"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -4207,14 +3949,13 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-    </row>
-    <row r="242" spans="1:11">
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="10"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -4222,14 +3963,13 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="5"/>
-    </row>
-    <row r="243" spans="1:11">
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243" s="9"/>
-      <c r="C243" s="10"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -4237,14 +3977,13 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
-    </row>
-    <row r="244" spans="1:11">
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244" s="9"/>
-      <c r="C244" s="10"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -4252,14 +3991,13 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="5"/>
-    </row>
-    <row r="245" spans="1:11">
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="10"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -4267,14 +4005,13 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-    </row>
-    <row r="246" spans="1:11">
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246" s="9"/>
-      <c r="C246" s="10"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -4282,14 +4019,13 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
-    </row>
-    <row r="247" spans="1:11">
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="10"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -4297,14 +4033,13 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
-    </row>
-    <row r="248" spans="1:11">
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="10"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -4312,14 +4047,13 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="5"/>
-    </row>
-    <row r="249" spans="1:11">
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="10"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -4327,14 +4061,13 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="5"/>
-    </row>
-    <row r="250" spans="1:11">
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250" s="9"/>
-      <c r="C250" s="10"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -4342,14 +4075,13 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="5"/>
-    </row>
-    <row r="251" spans="1:11">
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251" s="9"/>
-      <c r="C251" s="10"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -4357,14 +4089,13 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
-    </row>
-    <row r="252" spans="1:11">
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="4">
         <v>251</v>
       </c>
-      <c r="B252" s="9"/>
-      <c r="C252" s="10"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -4372,14 +4103,13 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="5"/>
-    </row>
-    <row r="253" spans="1:11">
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="4">
         <v>252</v>
       </c>
-      <c r="B253" s="9"/>
-      <c r="C253" s="10"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -4387,14 +4117,13 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="5"/>
-    </row>
-    <row r="254" spans="1:11">
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="4">
         <v>253</v>
       </c>
-      <c r="B254" s="9"/>
-      <c r="C254" s="10"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -4402,14 +4131,13 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
-    </row>
-    <row r="255" spans="1:11">
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="4">
         <v>254</v>
       </c>
-      <c r="B255" s="9"/>
-      <c r="C255" s="10"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -4417,14 +4145,13 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-    </row>
-    <row r="256" spans="1:11">
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="4">
         <v>255</v>
       </c>
-      <c r="B256" s="9"/>
-      <c r="C256" s="10"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -4432,14 +4159,13 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="5"/>
-    </row>
-    <row r="257" spans="1:11">
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="4">
         <v>256</v>
       </c>
-      <c r="B257" s="9"/>
-      <c r="C257" s="10"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -4447,14 +4173,13 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-    </row>
-    <row r="258" spans="1:11">
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="4">
         <v>257</v>
       </c>
-      <c r="B258" s="9"/>
-      <c r="C258" s="10"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -4462,14 +4187,13 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="5"/>
-    </row>
-    <row r="259" spans="1:11">
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="4">
         <v>258</v>
       </c>
-      <c r="B259" s="9"/>
-      <c r="C259" s="10"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -4477,14 +4201,13 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-    </row>
-    <row r="260" spans="1:11">
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="4">
         <v>259</v>
       </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="10"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
@@ -4492,14 +4215,13 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="5"/>
-    </row>
-    <row r="261" spans="1:11">
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="4">
         <v>260</v>
       </c>
-      <c r="B261" s="9"/>
-      <c r="C261" s="10"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -4507,14 +4229,13 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="5"/>
-    </row>
-    <row r="262" spans="1:11">
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="4">
         <v>261</v>
       </c>
-      <c r="B262" s="9"/>
-      <c r="C262" s="10"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -4522,14 +4243,13 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="5"/>
-    </row>
-    <row r="263" spans="1:11">
+    </row>
+    <row r="263" spans="1:10">
       <c r="A263" s="4">
         <v>262</v>
       </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="10"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -4537,14 +4257,13 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
-    </row>
-    <row r="264" spans="1:11">
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="4">
         <v>263</v>
       </c>
-      <c r="B264" s="9"/>
-      <c r="C264" s="10"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -4552,14 +4271,13 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
-    </row>
-    <row r="265" spans="1:11">
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="4">
         <v>264</v>
       </c>
-      <c r="B265" s="9"/>
-      <c r="C265" s="10"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -4567,14 +4285,13 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="5"/>
-    </row>
-    <row r="266" spans="1:11">
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="4">
         <v>265</v>
       </c>
-      <c r="B266" s="9"/>
-      <c r="C266" s="10"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -4582,14 +4299,13 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-    </row>
-    <row r="267" spans="1:11">
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="4">
         <v>266</v>
       </c>
-      <c r="B267" s="9"/>
-      <c r="C267" s="10"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
@@ -4597,14 +4313,13 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="5"/>
-    </row>
-    <row r="268" spans="1:11">
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="4">
         <v>267</v>
       </c>
-      <c r="B268" s="9"/>
-      <c r="C268" s="10"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -4612,14 +4327,13 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="5"/>
-    </row>
-    <row r="269" spans="1:11">
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="4">
         <v>268</v>
       </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="10"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -4627,14 +4341,13 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="5"/>
-    </row>
-    <row r="270" spans="1:11">
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" s="4">
         <v>269</v>
       </c>
-      <c r="B270" s="9"/>
-      <c r="C270" s="10"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -4642,14 +4355,13 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="5"/>
-    </row>
-    <row r="271" spans="1:11">
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="4">
         <v>270</v>
       </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="10"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -4657,14 +4369,13 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-    </row>
-    <row r="272" spans="1:11">
+    </row>
+    <row r="272" spans="1:10">
       <c r="A272" s="4">
         <v>271</v>
       </c>
-      <c r="B272" s="9"/>
-      <c r="C272" s="10"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -4672,14 +4383,13 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="5"/>
-    </row>
-    <row r="273" spans="1:11">
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="4">
         <v>272</v>
       </c>
-      <c r="B273" s="9"/>
-      <c r="C273" s="10"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
@@ -4687,14 +4397,13 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
-    </row>
-    <row r="274" spans="1:11">
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="4">
         <v>273</v>
       </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="10"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
@@ -4702,14 +4411,13 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="5"/>
-    </row>
-    <row r="275" spans="1:11">
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="4">
         <v>274</v>
       </c>
-      <c r="B275" s="9"/>
-      <c r="C275" s="10"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
@@ -4717,14 +4425,13 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="5"/>
-    </row>
-    <row r="276" spans="1:11">
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="4">
         <v>275</v>
       </c>
-      <c r="B276" s="9"/>
-      <c r="C276" s="10"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
@@ -4732,14 +4439,13 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="5"/>
-    </row>
-    <row r="277" spans="1:11">
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="4">
         <v>276</v>
       </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="10"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
@@ -4747,14 +4453,13 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
-    </row>
-    <row r="278" spans="1:11">
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="4">
         <v>277</v>
       </c>
-      <c r="B278" s="9"/>
-      <c r="C278" s="10"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -4762,14 +4467,13 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="5"/>
-    </row>
-    <row r="279" spans="1:11">
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="4">
         <v>278</v>
       </c>
-      <c r="B279" s="9"/>
-      <c r="C279" s="10"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -4777,14 +4481,13 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="5"/>
-    </row>
-    <row r="280" spans="1:11">
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="4">
         <v>279</v>
       </c>
-      <c r="B280" s="9"/>
-      <c r="C280" s="10"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -4792,14 +4495,13 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="5"/>
-    </row>
-    <row r="281" spans="1:11">
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="4">
         <v>280</v>
       </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="10"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -4807,14 +4509,13 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="5"/>
-    </row>
-    <row r="282" spans="1:11">
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="4">
         <v>281</v>
       </c>
-      <c r="B282" s="9"/>
-      <c r="C282" s="10"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -4822,14 +4523,13 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="5"/>
-    </row>
-    <row r="283" spans="1:11">
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="4">
         <v>282</v>
       </c>
-      <c r="B283" s="9"/>
-      <c r="C283" s="10"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -4837,14 +4537,13 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="5"/>
-    </row>
-    <row r="284" spans="1:11">
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="4">
         <v>283</v>
       </c>
-      <c r="B284" s="9"/>
-      <c r="C284" s="10"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
@@ -4852,14 +4551,13 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="5"/>
-    </row>
-    <row r="285" spans="1:11">
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="4">
         <v>284</v>
       </c>
-      <c r="B285" s="9"/>
-      <c r="C285" s="10"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -4867,14 +4565,13 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="5"/>
-    </row>
-    <row r="286" spans="1:11">
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="4">
         <v>285</v>
       </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="10"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -4882,14 +4579,13 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="5"/>
-    </row>
-    <row r="287" spans="1:11">
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="4">
         <v>286</v>
       </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="10"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -4897,14 +4593,13 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="5"/>
-    </row>
-    <row r="288" spans="1:11">
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="4">
         <v>287</v>
       </c>
-      <c r="B288" s="9"/>
-      <c r="C288" s="10"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -4912,14 +4607,13 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="5"/>
-    </row>
-    <row r="289" spans="1:11">
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="4">
         <v>288</v>
       </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="10"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -4927,14 +4621,13 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="5"/>
-    </row>
-    <row r="290" spans="1:11">
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="4">
         <v>289</v>
       </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="10"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -4942,14 +4635,13 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="5"/>
-    </row>
-    <row r="291" spans="1:11">
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="4">
         <v>290</v>
       </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="10"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -4957,14 +4649,13 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="5"/>
-    </row>
-    <row r="292" spans="1:11">
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="4">
         <v>291</v>
       </c>
-      <c r="B292" s="9"/>
-      <c r="C292" s="10"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -4972,14 +4663,13 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="5"/>
-    </row>
-    <row r="293" spans="1:11">
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" s="4">
         <v>292</v>
       </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="10"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -4987,14 +4677,13 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="5"/>
-    </row>
-    <row r="294" spans="1:11">
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="4">
         <v>293</v>
       </c>
-      <c r="B294" s="9"/>
-      <c r="C294" s="10"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -5002,14 +4691,13 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="5"/>
-    </row>
-    <row r="295" spans="1:11">
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" s="4">
         <v>294</v>
       </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="10"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -5017,14 +4705,13 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="5"/>
-    </row>
-    <row r="296" spans="1:11">
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="4">
         <v>295</v>
       </c>
-      <c r="B296" s="9"/>
-      <c r="C296" s="10"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -5032,14 +4719,13 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="5"/>
-    </row>
-    <row r="297" spans="1:11">
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="4">
         <v>296</v>
       </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="10"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -5047,14 +4733,13 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="5"/>
-    </row>
-    <row r="298" spans="1:11">
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="4">
         <v>297</v>
       </c>
-      <c r="B298" s="9"/>
-      <c r="C298" s="10"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -5062,14 +4747,13 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="5"/>
-    </row>
-    <row r="299" spans="1:11">
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="4">
         <v>298</v>
       </c>
-      <c r="B299" s="9"/>
-      <c r="C299" s="10"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -5077,14 +4761,13 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="5"/>
-    </row>
-    <row r="300" spans="1:11">
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="4">
         <v>299</v>
       </c>
-      <c r="B300" s="9"/>
-      <c r="C300" s="10"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
@@ -5092,14 +4775,13 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="5"/>
-    </row>
-    <row r="301" spans="1:11">
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="4">
         <v>300</v>
       </c>
-      <c r="B301" s="9"/>
-      <c r="C301" s="10"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -5107,14 +4789,13 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="5"/>
-    </row>
-    <row r="302" spans="1:11">
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" s="4">
         <v>301</v>
       </c>
-      <c r="B302" s="9"/>
-      <c r="C302" s="10"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -5122,14 +4803,13 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="5"/>
-    </row>
-    <row r="303" spans="1:11">
+    </row>
+    <row r="303" spans="1:10">
       <c r="A303" s="4">
         <v>302</v>
       </c>
-      <c r="B303" s="9"/>
-      <c r="C303" s="10"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -5137,14 +4817,13 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="5"/>
-    </row>
-    <row r="304" spans="1:11">
+    </row>
+    <row r="304" spans="1:10">
       <c r="A304" s="4">
         <v>303</v>
       </c>
-      <c r="B304" s="9"/>
-      <c r="C304" s="10"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -5152,14 +4831,13 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="5"/>
-    </row>
-    <row r="305" spans="1:11">
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="4">
         <v>304</v>
       </c>
-      <c r="B305" s="9"/>
-      <c r="C305" s="10"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -5167,14 +4845,13 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="5"/>
-    </row>
-    <row r="306" spans="1:11">
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="4">
         <v>305</v>
       </c>
-      <c r="B306" s="9"/>
-      <c r="C306" s="10"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -5182,14 +4859,13 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="5"/>
-    </row>
-    <row r="307" spans="1:11">
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="4">
         <v>306</v>
       </c>
-      <c r="B307" s="9"/>
-      <c r="C307" s="10"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -5197,14 +4873,13 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="5"/>
-    </row>
-    <row r="308" spans="1:11">
+    </row>
+    <row r="308" spans="1:10">
       <c r="A308" s="4">
         <v>307</v>
       </c>
-      <c r="B308" s="9"/>
-      <c r="C308" s="10"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
@@ -5212,14 +4887,13 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="5"/>
-    </row>
-    <row r="309" spans="1:11">
+    </row>
+    <row r="309" spans="1:10">
       <c r="A309" s="4">
         <v>308</v>
       </c>
-      <c r="B309" s="9"/>
-      <c r="C309" s="10"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
@@ -5227,14 +4901,13 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="5"/>
-    </row>
-    <row r="310" spans="1:11">
+    </row>
+    <row r="310" spans="1:10">
       <c r="A310" s="4">
         <v>309</v>
       </c>
-      <c r="B310" s="9"/>
-      <c r="C310" s="10"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -5242,14 +4915,13 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="5"/>
-    </row>
-    <row r="311" spans="1:11">
+    </row>
+    <row r="311" spans="1:10">
       <c r="A311" s="4">
         <v>310</v>
       </c>
-      <c r="B311" s="9"/>
-      <c r="C311" s="10"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
@@ -5257,14 +4929,13 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="5"/>
-    </row>
-    <row r="312" spans="1:11">
+    </row>
+    <row r="312" spans="1:10">
       <c r="A312" s="4">
         <v>311</v>
       </c>
-      <c r="B312" s="9"/>
-      <c r="C312" s="10"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
@@ -5272,14 +4943,13 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="5"/>
-    </row>
-    <row r="313" spans="1:11">
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313" s="4">
         <v>312</v>
       </c>
-      <c r="B313" s="9"/>
-      <c r="C313" s="10"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
@@ -5287,14 +4957,13 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="5"/>
-    </row>
-    <row r="314" spans="1:11">
+    </row>
+    <row r="314" spans="1:10">
       <c r="A314" s="4">
         <v>313</v>
       </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="10"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
@@ -5302,14 +4971,13 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="5"/>
-    </row>
-    <row r="315" spans="1:11">
+    </row>
+    <row r="315" spans="1:10">
       <c r="A315" s="4">
         <v>314</v>
       </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="10"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
@@ -5317,14 +4985,13 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="5"/>
-    </row>
-    <row r="316" spans="1:11">
+    </row>
+    <row r="316" spans="1:10">
       <c r="A316" s="4">
         <v>315</v>
       </c>
-      <c r="B316" s="9"/>
-      <c r="C316" s="10"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
@@ -5332,14 +4999,13 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="5"/>
-    </row>
-    <row r="317" spans="1:11">
+    </row>
+    <row r="317" spans="1:10">
       <c r="A317" s="4">
         <v>316</v>
       </c>
-      <c r="B317" s="9"/>
-      <c r="C317" s="10"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
@@ -5347,14 +5013,13 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="5"/>
-    </row>
-    <row r="318" spans="1:11">
+    </row>
+    <row r="318" spans="1:10">
       <c r="A318" s="4">
         <v>317</v>
       </c>
-      <c r="B318" s="9"/>
-      <c r="C318" s="10"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
@@ -5362,14 +5027,13 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="5"/>
-    </row>
-    <row r="319" spans="1:11">
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="4">
         <v>318</v>
       </c>
-      <c r="B319" s="9"/>
-      <c r="C319" s="10"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
@@ -5377,14 +5041,13 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="5"/>
-    </row>
-    <row r="320" spans="1:11">
+    </row>
+    <row r="320" spans="1:10">
       <c r="A320" s="4">
         <v>319</v>
       </c>
-      <c r="B320" s="9"/>
-      <c r="C320" s="10"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
@@ -5392,14 +5055,13 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="5"/>
-    </row>
-    <row r="321" spans="1:11">
+    </row>
+    <row r="321" spans="1:10">
       <c r="A321" s="4">
         <v>320</v>
       </c>
-      <c r="B321" s="9"/>
-      <c r="C321" s="10"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
@@ -5407,14 +5069,13 @@
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
-      <c r="K321" s="5"/>
-    </row>
-    <row r="322" spans="1:11">
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322" s="4">
         <v>321</v>
       </c>
-      <c r="B322" s="9"/>
-      <c r="C322" s="10"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
@@ -5422,14 +5083,13 @@
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
-      <c r="K322" s="5"/>
-    </row>
-    <row r="323" spans="1:11">
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323" s="4">
         <v>322</v>
       </c>
-      <c r="B323" s="9"/>
-      <c r="C323" s="10"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
@@ -5437,14 +5097,13 @@
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
-      <c r="K323" s="5"/>
-    </row>
-    <row r="324" spans="1:11">
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324" s="4">
         <v>323</v>
       </c>
-      <c r="B324" s="9"/>
-      <c r="C324" s="10"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
@@ -5452,14 +5111,13 @@
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
-      <c r="K324" s="5"/>
-    </row>
-    <row r="325" spans="1:11">
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325" s="4">
         <v>324</v>
       </c>
-      <c r="B325" s="9"/>
-      <c r="C325" s="10"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -5467,14 +5125,13 @@
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
-      <c r="K325" s="5"/>
-    </row>
-    <row r="326" spans="1:11">
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326" s="4">
         <v>325</v>
       </c>
-      <c r="B326" s="9"/>
-      <c r="C326" s="10"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -5482,14 +5139,13 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
-      <c r="K326" s="5"/>
-    </row>
-    <row r="327" spans="1:11">
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327" s="4">
         <v>326</v>
       </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="10"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -5497,14 +5153,13 @@
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
-      <c r="K327" s="5"/>
-    </row>
-    <row r="328" spans="1:11">
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328" s="4">
         <v>327</v>
       </c>
-      <c r="B328" s="9"/>
-      <c r="C328" s="10"/>
+      <c r="B328" s="7"/>
+      <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -5512,14 +5167,13 @@
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
-      <c r="K328" s="5"/>
-    </row>
-    <row r="329" spans="1:11">
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329" s="4">
         <v>328</v>
       </c>
-      <c r="B329" s="9"/>
-      <c r="C329" s="10"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -5527,14 +5181,13 @@
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
-      <c r="K329" s="5"/>
-    </row>
-    <row r="330" spans="1:11">
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330" s="4">
         <v>329</v>
       </c>
-      <c r="B330" s="9"/>
-      <c r="C330" s="10"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -5542,14 +5195,13 @@
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
-      <c r="K330" s="5"/>
-    </row>
-    <row r="331" spans="1:11">
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331" s="4">
         <v>330</v>
       </c>
-      <c r="B331" s="9"/>
-      <c r="C331" s="10"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -5557,14 +5209,13 @@
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
-      <c r="K331" s="5"/>
-    </row>
-    <row r="332" spans="1:11">
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332" s="4">
         <v>331</v>
       </c>
-      <c r="B332" s="9"/>
-      <c r="C332" s="10"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -5572,14 +5223,13 @@
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
-      <c r="K332" s="5"/>
-    </row>
-    <row r="333" spans="1:11">
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333" s="4">
         <v>332</v>
       </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="10"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -5587,14 +5237,13 @@
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
-      <c r="K333" s="5"/>
-    </row>
-    <row r="334" spans="1:11">
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334" s="4">
         <v>333</v>
       </c>
-      <c r="B334" s="9"/>
-      <c r="C334" s="10"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -5602,14 +5251,13 @@
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
-      <c r="K334" s="5"/>
-    </row>
-    <row r="335" spans="1:11">
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335" s="4">
         <v>334</v>
       </c>
-      <c r="B335" s="9"/>
-      <c r="C335" s="10"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -5617,14 +5265,13 @@
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
-      <c r="K335" s="5"/>
-    </row>
-    <row r="336" spans="1:11">
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336" s="4">
         <v>335</v>
       </c>
-      <c r="B336" s="9"/>
-      <c r="C336" s="10"/>
+      <c r="B336" s="7"/>
+      <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -5632,14 +5279,13 @@
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
-      <c r="K336" s="5"/>
-    </row>
-    <row r="337" spans="1:11">
+    </row>
+    <row r="337" spans="1:10">
       <c r="A337" s="4">
         <v>336</v>
       </c>
-      <c r="B337" s="9"/>
-      <c r="C337" s="10"/>
+      <c r="B337" s="7"/>
+      <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -5647,14 +5293,13 @@
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
-      <c r="K337" s="5"/>
-    </row>
-    <row r="338" spans="1:11">
+    </row>
+    <row r="338" spans="1:10">
       <c r="A338" s="4">
         <v>337</v>
       </c>
-      <c r="B338" s="9"/>
-      <c r="C338" s="10"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -5662,14 +5307,13 @@
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
-      <c r="K338" s="5"/>
-    </row>
-    <row r="339" spans="1:11">
+    </row>
+    <row r="339" spans="1:10">
       <c r="A339" s="4">
         <v>338</v>
       </c>
-      <c r="B339" s="9"/>
-      <c r="C339" s="10"/>
+      <c r="B339" s="7"/>
+      <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -5677,14 +5321,13 @@
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
-      <c r="K339" s="5"/>
-    </row>
-    <row r="340" spans="1:11">
+    </row>
+    <row r="340" spans="1:10">
       <c r="A340" s="4">
         <v>339</v>
       </c>
-      <c r="B340" s="9"/>
-      <c r="C340" s="10"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -5692,14 +5335,13 @@
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
-      <c r="K340" s="5"/>
-    </row>
-    <row r="341" spans="1:11">
+    </row>
+    <row r="341" spans="1:10">
       <c r="A341" s="4">
         <v>340</v>
       </c>
-      <c r="B341" s="9"/>
-      <c r="C341" s="10"/>
+      <c r="B341" s="7"/>
+      <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -5707,14 +5349,13 @@
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
-      <c r="K341" s="5"/>
-    </row>
-    <row r="342" spans="1:11">
+    </row>
+    <row r="342" spans="1:10">
       <c r="A342" s="4">
         <v>341</v>
       </c>
-      <c r="B342" s="9"/>
-      <c r="C342" s="10"/>
+      <c r="B342" s="7"/>
+      <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -5722,14 +5363,13 @@
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
-      <c r="K342" s="5"/>
-    </row>
-    <row r="343" spans="1:11">
+    </row>
+    <row r="343" spans="1:10">
       <c r="A343" s="4">
         <v>342</v>
       </c>
-      <c r="B343" s="9"/>
-      <c r="C343" s="10"/>
+      <c r="B343" s="7"/>
+      <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -5737,14 +5377,13 @@
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
-      <c r="K343" s="5"/>
-    </row>
-    <row r="344" spans="1:11">
+    </row>
+    <row r="344" spans="1:10">
       <c r="A344" s="4">
         <v>343</v>
       </c>
-      <c r="B344" s="9"/>
-      <c r="C344" s="10"/>
+      <c r="B344" s="7"/>
+      <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -5752,14 +5391,13 @@
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
-      <c r="K344" s="5"/>
-    </row>
-    <row r="345" spans="1:11">
+    </row>
+    <row r="345" spans="1:10">
       <c r="A345" s="4">
         <v>344</v>
       </c>
-      <c r="B345" s="9"/>
-      <c r="C345" s="10"/>
+      <c r="B345" s="7"/>
+      <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -5767,14 +5405,13 @@
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
-      <c r="K345" s="5"/>
-    </row>
-    <row r="346" spans="1:11">
+    </row>
+    <row r="346" spans="1:10">
       <c r="A346" s="4">
         <v>345</v>
       </c>
-      <c r="B346" s="9"/>
-      <c r="C346" s="10"/>
+      <c r="B346" s="7"/>
+      <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -5782,14 +5419,13 @@
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
-      <c r="K346" s="5"/>
-    </row>
-    <row r="347" spans="1:11">
+    </row>
+    <row r="347" spans="1:10">
       <c r="A347" s="4">
         <v>346</v>
       </c>
-      <c r="B347" s="9"/>
-      <c r="C347" s="10"/>
+      <c r="B347" s="7"/>
+      <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
@@ -5797,14 +5433,13 @@
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
-      <c r="K347" s="5"/>
-    </row>
-    <row r="348" spans="1:11">
+    </row>
+    <row r="348" spans="1:10">
       <c r="A348" s="4">
         <v>347</v>
       </c>
-      <c r="B348" s="9"/>
-      <c r="C348" s="10"/>
+      <c r="B348" s="7"/>
+      <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
@@ -5812,14 +5447,13 @@
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
-      <c r="K348" s="5"/>
-    </row>
-    <row r="349" spans="1:11">
+    </row>
+    <row r="349" spans="1:10">
       <c r="A349" s="4">
         <v>348</v>
       </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="10"/>
+      <c r="B349" s="7"/>
+      <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
@@ -5827,14 +5461,13 @@
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
-      <c r="K349" s="5"/>
-    </row>
-    <row r="350" spans="1:11">
+    </row>
+    <row r="350" spans="1:10">
       <c r="A350" s="4">
         <v>349</v>
       </c>
-      <c r="B350" s="9"/>
-      <c r="C350" s="10"/>
+      <c r="B350" s="7"/>
+      <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -5842,14 +5475,13 @@
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
-      <c r="K350" s="5"/>
-    </row>
-    <row r="351" spans="1:11">
+    </row>
+    <row r="351" spans="1:10">
       <c r="A351" s="4">
         <v>350</v>
       </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="10"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
@@ -5857,14 +5489,13 @@
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
-      <c r="K351" s="5"/>
-    </row>
-    <row r="352" spans="1:11">
+    </row>
+    <row r="352" spans="1:10">
       <c r="A352" s="4">
         <v>351</v>
       </c>
-      <c r="B352" s="9"/>
-      <c r="C352" s="10"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
@@ -5872,14 +5503,13 @@
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
-      <c r="K352" s="5"/>
-    </row>
-    <row r="353" spans="1:11">
+    </row>
+    <row r="353" spans="1:10">
       <c r="A353" s="4">
         <v>352</v>
       </c>
-      <c r="B353" s="9"/>
-      <c r="C353" s="10"/>
+      <c r="B353" s="7"/>
+      <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
@@ -5887,14 +5517,13 @@
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
-      <c r="K353" s="5"/>
-    </row>
-    <row r="354" spans="1:11">
+    </row>
+    <row r="354" spans="1:10">
       <c r="A354" s="4">
         <v>353</v>
       </c>
-      <c r="B354" s="9"/>
-      <c r="C354" s="10"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
@@ -5902,14 +5531,13 @@
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
-      <c r="K354" s="5"/>
-    </row>
-    <row r="355" spans="1:11">
+    </row>
+    <row r="355" spans="1:10">
       <c r="A355" s="4">
         <v>354</v>
       </c>
-      <c r="B355" s="9"/>
-      <c r="C355" s="10"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
@@ -5917,14 +5545,13 @@
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
-      <c r="K355" s="5"/>
-    </row>
-    <row r="356" spans="1:11">
+    </row>
+    <row r="356" spans="1:10">
       <c r="A356" s="4">
         <v>355</v>
       </c>
-      <c r="B356" s="9"/>
-      <c r="C356" s="10"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
@@ -5932,14 +5559,13 @@
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
-      <c r="K356" s="5"/>
-    </row>
-    <row r="357" spans="1:11">
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357" s="4">
         <v>356</v>
       </c>
-      <c r="B357" s="9"/>
-      <c r="C357" s="10"/>
+      <c r="B357" s="7"/>
+      <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
@@ -5947,14 +5573,13 @@
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
-      <c r="K357" s="5"/>
-    </row>
-    <row r="358" spans="1:11">
+    </row>
+    <row r="358" spans="1:10">
       <c r="A358" s="4">
         <v>357</v>
       </c>
-      <c r="B358" s="9"/>
-      <c r="C358" s="10"/>
+      <c r="B358" s="7"/>
+      <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
@@ -5962,14 +5587,13 @@
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
-      <c r="K358" s="5"/>
-    </row>
-    <row r="359" spans="1:11">
+    </row>
+    <row r="359" spans="1:10">
       <c r="A359" s="4">
         <v>358</v>
       </c>
-      <c r="B359" s="9"/>
-      <c r="C359" s="10"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
@@ -5977,14 +5601,13 @@
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
-      <c r="K359" s="5"/>
-    </row>
-    <row r="360" spans="1:11">
+    </row>
+    <row r="360" spans="1:10">
       <c r="A360" s="4">
         <v>359</v>
       </c>
-      <c r="B360" s="9"/>
-      <c r="C360" s="10"/>
+      <c r="B360" s="7"/>
+      <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
@@ -5992,14 +5615,13 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
-      <c r="K360" s="5"/>
-    </row>
-    <row r="361" spans="1:11">
+    </row>
+    <row r="361" spans="1:10">
       <c r="A361" s="4">
         <v>360</v>
       </c>
-      <c r="B361" s="9"/>
-      <c r="C361" s="10"/>
+      <c r="B361" s="7"/>
+      <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -6007,14 +5629,13 @@
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
-      <c r="K361" s="5"/>
-    </row>
-    <row r="362" spans="1:11">
+    </row>
+    <row r="362" spans="1:10">
       <c r="A362" s="4">
         <v>361</v>
       </c>
-      <c r="B362" s="9"/>
-      <c r="C362" s="10"/>
+      <c r="B362" s="7"/>
+      <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
@@ -6022,14 +5643,13 @@
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
-      <c r="K362" s="5"/>
-    </row>
-    <row r="363" spans="1:11">
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363" s="4">
         <v>362</v>
       </c>
-      <c r="B363" s="9"/>
-      <c r="C363" s="10"/>
+      <c r="B363" s="7"/>
+      <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
@@ -6037,14 +5657,13 @@
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
-      <c r="K363" s="5"/>
-    </row>
-    <row r="364" spans="1:11">
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364" s="4">
         <v>363</v>
       </c>
-      <c r="B364" s="9"/>
-      <c r="C364" s="10"/>
+      <c r="B364" s="7"/>
+      <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
@@ -6052,14 +5671,13 @@
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
-      <c r="K364" s="5"/>
-    </row>
-    <row r="365" spans="1:11">
+    </row>
+    <row r="365" spans="1:10">
       <c r="A365" s="4">
         <v>364</v>
       </c>
-      <c r="B365" s="9"/>
-      <c r="C365" s="10"/>
+      <c r="B365" s="7"/>
+      <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
@@ -6067,14 +5685,13 @@
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
-      <c r="K365" s="5"/>
-    </row>
-    <row r="366" spans="1:11">
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366" s="4">
         <v>365</v>
       </c>
-      <c r="B366" s="9"/>
-      <c r="C366" s="10"/>
+      <c r="B366" s="7"/>
+      <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -6082,14 +5699,13 @@
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
-      <c r="K366" s="5"/>
-    </row>
-    <row r="367" spans="1:11">
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367" s="4">
         <v>366</v>
       </c>
-      <c r="B367" s="9"/>
-      <c r="C367" s="10"/>
+      <c r="B367" s="7"/>
+      <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
@@ -6097,14 +5713,13 @@
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
-      <c r="K367" s="5"/>
-    </row>
-    <row r="368" spans="1:11">
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368" s="4">
         <v>367</v>
       </c>
-      <c r="B368" s="9"/>
-      <c r="C368" s="10"/>
+      <c r="B368" s="7"/>
+      <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
@@ -6112,14 +5727,13 @@
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
-      <c r="K368" s="5"/>
-    </row>
-    <row r="369" spans="1:11">
+    </row>
+    <row r="369" spans="1:10">
       <c r="A369" s="4">
         <v>368</v>
       </c>
-      <c r="B369" s="9"/>
-      <c r="C369" s="10"/>
+      <c r="B369" s="7"/>
+      <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
@@ -6127,14 +5741,13 @@
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
-      <c r="K369" s="5"/>
-    </row>
-    <row r="370" spans="1:11">
+    </row>
+    <row r="370" spans="1:10">
       <c r="A370" s="4">
         <v>369</v>
       </c>
-      <c r="B370" s="9"/>
-      <c r="C370" s="10"/>
+      <c r="B370" s="7"/>
+      <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
@@ -6142,14 +5755,13 @@
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
-      <c r="K370" s="5"/>
-    </row>
-    <row r="371" spans="1:11">
+    </row>
+    <row r="371" spans="1:10">
       <c r="A371" s="4">
         <v>370</v>
       </c>
-      <c r="B371" s="9"/>
-      <c r="C371" s="10"/>
+      <c r="B371" s="7"/>
+      <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
@@ -6157,14 +5769,13 @@
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
-      <c r="K371" s="5"/>
-    </row>
-    <row r="372" spans="1:11">
+    </row>
+    <row r="372" spans="1:10">
       <c r="A372" s="4">
         <v>371</v>
       </c>
-      <c r="B372" s="9"/>
-      <c r="C372" s="10"/>
+      <c r="B372" s="7"/>
+      <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
@@ -6172,14 +5783,13 @@
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
-      <c r="K372" s="5"/>
-    </row>
-    <row r="373" spans="1:11">
+    </row>
+    <row r="373" spans="1:10">
       <c r="A373" s="4">
         <v>372</v>
       </c>
-      <c r="B373" s="9"/>
-      <c r="C373" s="10"/>
+      <c r="B373" s="7"/>
+      <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
@@ -6187,14 +5797,13 @@
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
-      <c r="K373" s="5"/>
-    </row>
-    <row r="374" spans="1:11">
+    </row>
+    <row r="374" spans="1:10">
       <c r="A374" s="4">
         <v>373</v>
       </c>
-      <c r="B374" s="9"/>
-      <c r="C374" s="10"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
@@ -6202,14 +5811,13 @@
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5"/>
-      <c r="K374" s="5"/>
-    </row>
-    <row r="375" spans="1:11">
+    </row>
+    <row r="375" spans="1:10">
       <c r="A375" s="4">
         <v>374</v>
       </c>
-      <c r="B375" s="9"/>
-      <c r="C375" s="10"/>
+      <c r="B375" s="7"/>
+      <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
@@ -6217,14 +5825,13 @@
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5"/>
-      <c r="K375" s="5"/>
-    </row>
-    <row r="376" spans="1:11">
+    </row>
+    <row r="376" spans="1:10">
       <c r="A376" s="4">
         <v>375</v>
       </c>
-      <c r="B376" s="9"/>
-      <c r="C376" s="10"/>
+      <c r="B376" s="7"/>
+      <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
@@ -6232,14 +5839,13 @@
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5"/>
-      <c r="K376" s="5"/>
-    </row>
-    <row r="377" spans="1:11">
+    </row>
+    <row r="377" spans="1:10">
       <c r="A377" s="4">
         <v>376</v>
       </c>
-      <c r="B377" s="9"/>
-      <c r="C377" s="10"/>
+      <c r="B377" s="7"/>
+      <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
@@ -6247,14 +5853,13 @@
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5"/>
-      <c r="K377" s="5"/>
-    </row>
-    <row r="378" spans="1:11">
+    </row>
+    <row r="378" spans="1:10">
       <c r="A378" s="4">
         <v>377</v>
       </c>
-      <c r="B378" s="9"/>
-      <c r="C378" s="10"/>
+      <c r="B378" s="7"/>
+      <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
@@ -6262,14 +5867,13 @@
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5"/>
-      <c r="K378" s="5"/>
-    </row>
-    <row r="379" spans="1:11">
+    </row>
+    <row r="379" spans="1:10">
       <c r="A379" s="4">
         <v>378</v>
       </c>
-      <c r="B379" s="9"/>
-      <c r="C379" s="10"/>
+      <c r="B379" s="7"/>
+      <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
@@ -6277,14 +5881,13 @@
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
       <c r="J379" s="5"/>
-      <c r="K379" s="5"/>
-    </row>
-    <row r="380" spans="1:11">
+    </row>
+    <row r="380" spans="1:10">
       <c r="A380" s="4">
         <v>379</v>
       </c>
-      <c r="B380" s="9"/>
-      <c r="C380" s="10"/>
+      <c r="B380" s="7"/>
+      <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
@@ -6292,14 +5895,13 @@
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5"/>
-      <c r="K380" s="5"/>
-    </row>
-    <row r="381" spans="1:11">
+    </row>
+    <row r="381" spans="1:10">
       <c r="A381" s="4">
         <v>380</v>
       </c>
-      <c r="B381" s="9"/>
-      <c r="C381" s="10"/>
+      <c r="B381" s="7"/>
+      <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
@@ -6307,14 +5909,13 @@
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
       <c r="J381" s="5"/>
-      <c r="K381" s="5"/>
-    </row>
-    <row r="382" spans="1:11">
+    </row>
+    <row r="382" spans="1:10">
       <c r="A382" s="4">
         <v>381</v>
       </c>
-      <c r="B382" s="9"/>
-      <c r="C382" s="10"/>
+      <c r="B382" s="7"/>
+      <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
@@ -6322,14 +5923,13 @@
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
       <c r="J382" s="5"/>
-      <c r="K382" s="5"/>
-    </row>
-    <row r="383" spans="1:11">
+    </row>
+    <row r="383" spans="1:10">
       <c r="A383" s="4">
         <v>382</v>
       </c>
-      <c r="B383" s="9"/>
-      <c r="C383" s="10"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
@@ -6337,14 +5937,13 @@
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5"/>
-      <c r="K383" s="5"/>
-    </row>
-    <row r="384" spans="1:11">
+    </row>
+    <row r="384" spans="1:10">
       <c r="A384" s="4">
         <v>383</v>
       </c>
-      <c r="B384" s="9"/>
-      <c r="C384" s="10"/>
+      <c r="B384" s="7"/>
+      <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
@@ -6352,14 +5951,13 @@
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
       <c r="J384" s="5"/>
-      <c r="K384" s="5"/>
-    </row>
-    <row r="385" spans="1:11">
+    </row>
+    <row r="385" spans="1:10">
       <c r="A385" s="4">
         <v>384</v>
       </c>
-      <c r="B385" s="9"/>
-      <c r="C385" s="10"/>
+      <c r="B385" s="7"/>
+      <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
@@ -6367,14 +5965,13 @@
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5"/>
-      <c r="K385" s="5"/>
-    </row>
-    <row r="386" spans="1:11">
+    </row>
+    <row r="386" spans="1:10">
       <c r="A386" s="4">
         <v>385</v>
       </c>
-      <c r="B386" s="9"/>
-      <c r="C386" s="10"/>
+      <c r="B386" s="7"/>
+      <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
@@ -6382,14 +5979,13 @@
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5"/>
-      <c r="K386" s="5"/>
-    </row>
-    <row r="387" spans="1:11">
+    </row>
+    <row r="387" spans="1:10">
       <c r="A387" s="4">
         <v>386</v>
       </c>
-      <c r="B387" s="9"/>
-      <c r="C387" s="10"/>
+      <c r="B387" s="7"/>
+      <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
@@ -6397,14 +5993,13 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5"/>
-      <c r="K387" s="5"/>
-    </row>
-    <row r="388" spans="1:11">
+    </row>
+    <row r="388" spans="1:10">
       <c r="A388" s="4">
         <v>387</v>
       </c>
-      <c r="B388" s="9"/>
-      <c r="C388" s="10"/>
+      <c r="B388" s="7"/>
+      <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
@@ -6412,14 +6007,13 @@
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5"/>
-      <c r="K388" s="5"/>
-    </row>
-    <row r="389" spans="1:11">
+    </row>
+    <row r="389" spans="1:10">
       <c r="A389" s="4">
         <v>388</v>
       </c>
-      <c r="B389" s="9"/>
-      <c r="C389" s="10"/>
+      <c r="B389" s="7"/>
+      <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
@@ -6427,14 +6021,13 @@
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5"/>
-      <c r="K389" s="5"/>
-    </row>
-    <row r="390" spans="1:11">
+    </row>
+    <row r="390" spans="1:10">
       <c r="A390" s="4">
         <v>389</v>
       </c>
-      <c r="B390" s="9"/>
-      <c r="C390" s="10"/>
+      <c r="B390" s="7"/>
+      <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
@@ -6442,14 +6035,13 @@
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5"/>
-      <c r="K390" s="5"/>
-    </row>
-    <row r="391" spans="1:11">
+    </row>
+    <row r="391" spans="1:10">
       <c r="A391" s="4">
         <v>390</v>
       </c>
-      <c r="B391" s="9"/>
-      <c r="C391" s="10"/>
+      <c r="B391" s="7"/>
+      <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
@@ -6457,14 +6049,13 @@
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5"/>
-      <c r="K391" s="5"/>
-    </row>
-    <row r="392" spans="1:11">
+    </row>
+    <row r="392" spans="1:10">
       <c r="A392" s="4">
         <v>391</v>
       </c>
-      <c r="B392" s="9"/>
-      <c r="C392" s="10"/>
+      <c r="B392" s="7"/>
+      <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
@@ -6472,14 +6063,13 @@
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5"/>
-      <c r="K392" s="5"/>
-    </row>
-    <row r="393" spans="1:11">
+    </row>
+    <row r="393" spans="1:10">
       <c r="A393" s="4">
         <v>392</v>
       </c>
-      <c r="B393" s="9"/>
-      <c r="C393" s="10"/>
+      <c r="B393" s="7"/>
+      <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
@@ -6487,14 +6077,13 @@
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5"/>
-      <c r="K393" s="5"/>
-    </row>
-    <row r="394" spans="1:11">
+    </row>
+    <row r="394" spans="1:10">
       <c r="A394" s="4">
         <v>393</v>
       </c>
-      <c r="B394" s="9"/>
-      <c r="C394" s="10"/>
+      <c r="B394" s="7"/>
+      <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
@@ -6502,14 +6091,13 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
       <c r="J394" s="5"/>
-      <c r="K394" s="5"/>
-    </row>
-    <row r="395" spans="1:11">
+    </row>
+    <row r="395" spans="1:10">
       <c r="A395" s="4">
         <v>394</v>
       </c>
-      <c r="B395" s="9"/>
-      <c r="C395" s="10"/>
+      <c r="B395" s="7"/>
+      <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
@@ -6517,14 +6105,13 @@
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
       <c r="J395" s="5"/>
-      <c r="K395" s="5"/>
-    </row>
-    <row r="396" spans="1:11">
+    </row>
+    <row r="396" spans="1:10">
       <c r="A396" s="4">
         <v>395</v>
       </c>
-      <c r="B396" s="9"/>
-      <c r="C396" s="10"/>
+      <c r="B396" s="7"/>
+      <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
@@ -6532,14 +6119,13 @@
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
       <c r="J396" s="5"/>
-      <c r="K396" s="5"/>
-    </row>
-    <row r="397" spans="1:11">
+    </row>
+    <row r="397" spans="1:10">
       <c r="A397" s="4">
         <v>396</v>
       </c>
-      <c r="B397" s="9"/>
-      <c r="C397" s="10"/>
+      <c r="B397" s="7"/>
+      <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
@@ -6547,14 +6133,13 @@
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
       <c r="J397" s="5"/>
-      <c r="K397" s="5"/>
-    </row>
-    <row r="398" spans="1:11">
+    </row>
+    <row r="398" spans="1:10">
       <c r="A398" s="4">
         <v>397</v>
       </c>
-      <c r="B398" s="9"/>
-      <c r="C398" s="10"/>
+      <c r="B398" s="7"/>
+      <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
@@ -6562,14 +6147,13 @@
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="5"/>
-    </row>
-    <row r="399" spans="1:11">
+    </row>
+    <row r="399" spans="1:10">
       <c r="A399" s="4">
         <v>398</v>
       </c>
-      <c r="B399" s="9"/>
-      <c r="C399" s="10"/>
+      <c r="B399" s="7"/>
+      <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
@@ -6577,14 +6161,13 @@
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
       <c r="J399" s="5"/>
-      <c r="K399" s="5"/>
-    </row>
-    <row r="400" spans="1:11">
+    </row>
+    <row r="400" spans="1:10">
       <c r="A400" s="4">
         <v>399</v>
       </c>
-      <c r="B400" s="9"/>
-      <c r="C400" s="10"/>
+      <c r="B400" s="7"/>
+      <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
@@ -6592,14 +6175,13 @@
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
       <c r="J400" s="5"/>
-      <c r="K400" s="5"/>
-    </row>
-    <row r="401" spans="1:11">
+    </row>
+    <row r="401" spans="1:10">
       <c r="A401" s="4">
         <v>400</v>
       </c>
-      <c r="B401" s="9"/>
-      <c r="C401" s="10"/>
+      <c r="B401" s="7"/>
+      <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
@@ -6607,14 +6189,13 @@
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
       <c r="J401" s="5"/>
-      <c r="K401" s="5"/>
-    </row>
-    <row r="402" spans="1:11">
+    </row>
+    <row r="402" spans="1:10">
       <c r="A402" s="4">
         <v>401</v>
       </c>
-      <c r="B402" s="9"/>
-      <c r="C402" s="10"/>
+      <c r="B402" s="7"/>
+      <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
@@ -6622,14 +6203,13 @@
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
       <c r="J402" s="5"/>
-      <c r="K402" s="5"/>
-    </row>
-    <row r="403" spans="1:11">
+    </row>
+    <row r="403" spans="1:10">
       <c r="A403" s="4">
         <v>402</v>
       </c>
-      <c r="B403" s="9"/>
-      <c r="C403" s="10"/>
+      <c r="B403" s="7"/>
+      <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
@@ -6637,14 +6217,13 @@
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5"/>
-      <c r="K403" s="5"/>
-    </row>
-    <row r="404" spans="1:11">
+    </row>
+    <row r="404" spans="1:10">
       <c r="A404" s="4">
         <v>403</v>
       </c>
-      <c r="B404" s="9"/>
-      <c r="C404" s="10"/>
+      <c r="B404" s="7"/>
+      <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
@@ -6652,14 +6231,13 @@
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
       <c r="J404" s="5"/>
-      <c r="K404" s="5"/>
-    </row>
-    <row r="405" spans="1:11">
+    </row>
+    <row r="405" spans="1:10">
       <c r="A405" s="4">
         <v>404</v>
       </c>
-      <c r="B405" s="9"/>
-      <c r="C405" s="10"/>
+      <c r="B405" s="7"/>
+      <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
@@ -6667,14 +6245,13 @@
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5"/>
-      <c r="K405" s="5"/>
-    </row>
-    <row r="406" spans="1:11">
+    </row>
+    <row r="406" spans="1:10">
       <c r="A406" s="4">
         <v>405</v>
       </c>
-      <c r="B406" s="9"/>
-      <c r="C406" s="10"/>
+      <c r="B406" s="7"/>
+      <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
@@ -6682,29 +6259,27 @@
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
       <c r="J406" s="5"/>
-      <c r="K406" s="5"/>
-    </row>
-    <row r="407" spans="1:11">
-      <c r="A407" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B407" s="12"/>
-      <c r="C407" s="12"/>
-      <c r="D407" s="13"/>
-      <c r="E407" s="6">
-        <f>SUM(E2:E406)</f>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" s="9"/>
+      <c r="C407" s="10"/>
+      <c r="D407" s="6">
+        <f>SUM(D2:D406)</f>
         <v>0</v>
       </c>
+      <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
-      <c r="K407" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A407:D407"/>
+    <mergeCell ref="A407:C407"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
